--- a/test.xlsx
+++ b/test.xlsx
@@ -8479,7 +8479,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -8488,8 +8488,8 @@
     <col min="2" max="2" width="25.25" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
-    <col min="5" max="6" width="9" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="1"/>
+    <col min="5" max="7" width="9" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1">
@@ -8638,6 +8638,7 @@
       <c r="A18" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="D18"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="3" t="s">
@@ -8693,5 +8694,6 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -1,802 +1,722 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="37755" windowHeight="17970"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="360" yWindow="45" windowWidth="37755" windowHeight="17970" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>주소</t>
-  </si>
-  <si>
-    <t>경도</t>
-  </si>
-  <si>
-    <t>위도</t>
-  </si>
-  <si>
-    <t>MGRS</t>
-  </si>
-  <si>
-    <t>송학동1가 11-1</t>
-  </si>
-  <si>
-    <t>답동 18-4</t>
-  </si>
-  <si>
-    <t>신생동 2-44</t>
-  </si>
-  <si>
-    <t>사동 18-3</t>
-  </si>
-  <si>
-    <t>전동 25-97</t>
-  </si>
-  <si>
-    <t>답동 10-16</t>
-  </si>
-  <si>
-    <t>답동 6</t>
-  </si>
-  <si>
-    <t>송학동 2가 18</t>
-  </si>
-  <si>
-    <t>관동3가 1-4</t>
-  </si>
-  <si>
-    <t>신생동 2-1</t>
-  </si>
-  <si>
-    <t>신포동 18-8</t>
-  </si>
-  <si>
-    <t>중앙동 4가 7-1</t>
-  </si>
-  <si>
-    <t>중앙동 4가 8</t>
-  </si>
-  <si>
-    <t>송학동3가 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">답동 9 </t>
-  </si>
-  <si>
-    <t>해안동 2가 4</t>
-  </si>
-  <si>
-    <t>사동 29</t>
-  </si>
-  <si>
-    <t>송학동 2가 16</t>
-  </si>
-  <si>
-    <t>사동 2-1</t>
-  </si>
-  <si>
-    <t>신생동 28</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="66">
-    <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="#,##0.0"/>
-    <numFmt numFmtId="177" formatCode="#,##0.000"/>
-    <numFmt numFmtId="178" formatCode="#,##0.0____"/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="180" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="181" formatCode="#,##0;\(\-#,##0\)"/>
-    <numFmt numFmtId="182" formatCode="_-* #,##0.00_-;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="183" formatCode="_ &quot;₩&quot;* #,##0.00_ ;_ &quot;₩&quot;* &quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-#,##0.00_ ;_ &quot;₩&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="184" formatCode="#,##0_ "/>
-    <numFmt numFmtId="185" formatCode="_-* #,##0_-;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="186" formatCode="yyyy&quot;/&quot;m&quot;/&quot;d"/>
-    <numFmt numFmtId="187" formatCode="_ &quot;₩&quot;* #,##0.00_ ;_ &quot;₩&quot;* \-#,##0.00_ ;_ &quot;₩&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="188" formatCode="0.0%"/>
-    <numFmt numFmtId="189" formatCode="#"/>
-    <numFmt numFmtId="190" formatCode="_ * #,##0_ ;_ * &quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="191" formatCode="\(#,##0.0\)"/>
-    <numFmt numFmtId="192" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="193" formatCode="_ * #,##0_ ;_ * &quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="194" formatCode="yy&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-m&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-d&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\ h:mm"/>
-    <numFmt numFmtId="195" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="196" formatCode="_-* #,##0_-;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="197" formatCode="&quot;₩&quot;\!\$#\!\,##0_);[Red]&quot;₩&quot;\!\(&quot;₩&quot;\!\$#\!\,##0&quot;₩&quot;\!\)"/>
-    <numFmt numFmtId="198" formatCode="0\!.0000000000000000"/>
-    <numFmt numFmtId="199" formatCode="&quot;$&quot;#\!\,##0\!.00_);[Red]&quot;₩&quot;\!\(&quot;$&quot;#\!\,##0\!.00&quot;₩&quot;\!\)"/>
-    <numFmt numFmtId="200" formatCode="_-* #,##0.00_-;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="201" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="202" formatCode="&quot;₩&quot;#,##0.00;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-&quot;₩&quot;#,##0.00"/>
-    <numFmt numFmtId="203" formatCode="#.00"/>
-    <numFmt numFmtId="204" formatCode="#."/>
-    <numFmt numFmtId="205" formatCode="&quot;₩&quot;#,##0.00;&quot;₩&quot;\-#,##0.00"/>
-    <numFmt numFmtId="206" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="207" formatCode="_ &quot;₩&quot;* #,##0.00_ ;_ &quot;₩&quot;* &quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-#,##0.00_ ;_ &quot;₩&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="208" formatCode="_ &quot;₩&quot;* #,##0_ ;_ &quot;₩&quot;* \-#,##0_ ;_ &quot;₩&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="209" formatCode="0.0%\ \ \ \ "/>
-    <numFmt numFmtId="210" formatCode="%#.00"/>
-    <numFmt numFmtId="211" formatCode="_ * #,##0.00_ ;_ * &quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="212" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="213" formatCode="0.0%\ \ \ "/>
-    <numFmt numFmtId="214" formatCode="#,##0."/>
-    <numFmt numFmtId="215" formatCode="&quot;US$&quot;#,##0.00_);[Red]&quot;₩&quot;\!\(&quot;US$&quot;#,##0.00&quot;₩&quot;\!\)"/>
-    <numFmt numFmtId="216" formatCode="&quot;₩&quot;#,##0.00;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-#,##0.00"/>
-    <numFmt numFmtId="217" formatCode="\$#,##0\ ;\(\$#,##0\)"/>
-    <numFmt numFmtId="218" formatCode="\$#.00"/>
-    <numFmt numFmtId="219" formatCode="\$#."/>
-    <numFmt numFmtId="220" formatCode="#,##0.0000;[Red]\-#,##0.0000"/>
-    <numFmt numFmtId="221" formatCode="_ * #,##0.00_ ;_ * &quot;₩&quot;\-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="222" formatCode="&quot;NO.&quot;#,##0"/>
-    <numFmt numFmtId="223" formatCode="[Blue]#,##0;[Red]\-#,##0;[Green]0"/>
-    <numFmt numFmtId="224" formatCode="#,##0\ &quot;DM&quot;;[Red]\-#,##0\ &quot;DM&quot;"/>
-    <numFmt numFmtId="225" formatCode="#,##0.00\ &quot;DM&quot;;[Red]\-#,##0.00\ &quot;DM&quot;"/>
-    <numFmt numFmtId="226" formatCode="#,##0;[Red]&quot;-&quot;#,##0"/>
-    <numFmt numFmtId="227" formatCode="#,##0;[Red]#,##0"/>
-    <numFmt numFmtId="228" formatCode="000.000"/>
-    <numFmt numFmtId="229" formatCode="#,##0;\-#,##0.00"/>
-    <numFmt numFmtId="230" formatCode="#\!\,##0;&quot;₩&quot;\!\-#\!\,##0\!.00"/>
-    <numFmt numFmtId="231" formatCode="0.000"/>
-    <numFmt numFmtId="232" formatCode="###&quot;m&quot;"/>
-    <numFmt numFmtId="233" formatCode="_ &quot;₩&quot;* #,##0.00_ ;_ &quot;₩&quot;* &quot;₩&quot;\-#,##0.00_ ;_ &quot;₩&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="234" formatCode="&quot;₩&quot;#,##0;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-#,##0"/>
-    <numFmt numFmtId="235" formatCode="#,##0.00000"/>
-    <numFmt numFmtId="236" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="237" formatCode="0.000000"/>
-    <numFmt numFmtId="238" formatCode="&quot;₩&quot;#,##0;&quot;₩&quot;\-#,##0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="63">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0____"/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="169" formatCode="#,##0;\(\-#,##0\)"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.00_-;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="171" formatCode="_ &quot;₩&quot;* #,##0.00_ ;_ &quot;₩&quot;* &quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-#,##0.00_ ;_ &quot;₩&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="172" formatCode="#,##0_ "/>
+    <numFmt numFmtId="173" formatCode="_-* #,##0_-;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="174" formatCode="yyyy&quot;/&quot;m&quot;/&quot;d"/>
+    <numFmt numFmtId="175" formatCode="_ &quot;₩&quot;* #,##0.00_ ;_ &quot;₩&quot;* \-#,##0.00_ ;_ &quot;₩&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0%"/>
+    <numFmt numFmtId="177" formatCode="#"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * &quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="\(#,##0.0\)"/>
+    <numFmt numFmtId="180" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="181" formatCode="_ * #,##0_ ;_ * &quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="182" formatCode="yy&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-m&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-d&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\ h:mm"/>
+    <numFmt numFmtId="183" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="184" formatCode="_-* #,##0_-;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="185" formatCode="&quot;₩&quot;\!\$#\!\,##0_);[Red]&quot;₩&quot;\!\(&quot;₩&quot;\!\$#\!\,##0&quot;₩&quot;\!\)"/>
+    <numFmt numFmtId="186" formatCode="0\!.0000000000000000"/>
+    <numFmt numFmtId="187" formatCode="&quot;$&quot;#\!\,##0\!.00_);[Red]&quot;₩&quot;\!\(&quot;$&quot;#\!\,##0\!.00&quot;₩&quot;\!\)"/>
+    <numFmt numFmtId="188" formatCode="_-* #,##0.00_-;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="189" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="190" formatCode="&quot;₩&quot;#,##0.00;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-&quot;₩&quot;#,##0.00"/>
+    <numFmt numFmtId="191" formatCode="#.00"/>
+    <numFmt numFmtId="192" formatCode="#."/>
+    <numFmt numFmtId="193" formatCode="&quot;₩&quot;#,##0.00;&quot;₩&quot;\-#,##0.00"/>
+    <numFmt numFmtId="194" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="195" formatCode="_ &quot;₩&quot;* #,##0.00_ ;_ &quot;₩&quot;* &quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-#,##0.00_ ;_ &quot;₩&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="196" formatCode="_ &quot;₩&quot;* #,##0_ ;_ &quot;₩&quot;* \-#,##0_ ;_ &quot;₩&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="197" formatCode="0.0%\ \ \ \ "/>
+    <numFmt numFmtId="198" formatCode="%#.00"/>
+    <numFmt numFmtId="199" formatCode="_ * #,##0.00_ ;_ * &quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="200" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="201" formatCode="0.0%\ \ \ "/>
+    <numFmt numFmtId="202" formatCode="#,##0."/>
+    <numFmt numFmtId="203" formatCode="&quot;US$&quot;#,##0.00_);[Red]&quot;₩&quot;\!\(&quot;US$&quot;#,##0.00&quot;₩&quot;\!\)"/>
+    <numFmt numFmtId="204" formatCode="&quot;₩&quot;#,##0.00;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-#,##0.00"/>
+    <numFmt numFmtId="205" formatCode="\$#,##0\ ;\(\$#,##0\)"/>
+    <numFmt numFmtId="206" formatCode="\$#.00"/>
+    <numFmt numFmtId="207" formatCode="\$#."/>
+    <numFmt numFmtId="208" formatCode="#,##0.0000;[Red]\-#,##0.0000"/>
+    <numFmt numFmtId="209" formatCode="_ * #,##0.00_ ;_ * &quot;₩&quot;\-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="210" formatCode="&quot;NO.&quot;#,##0"/>
+    <numFmt numFmtId="211" formatCode="[Blue]#,##0;[Red]\-#,##0;[Green]0"/>
+    <numFmt numFmtId="212" formatCode="#,##0\ &quot;DM&quot;;[Red]\-#,##0\ &quot;DM&quot;"/>
+    <numFmt numFmtId="213" formatCode="#,##0.00\ &quot;DM&quot;;[Red]\-#,##0.00\ &quot;DM&quot;"/>
+    <numFmt numFmtId="214" formatCode="#,##0;[Red]&quot;-&quot;#,##0"/>
+    <numFmt numFmtId="215" formatCode="#,##0;[Red]#,##0"/>
+    <numFmt numFmtId="216" formatCode="000.000"/>
+    <numFmt numFmtId="217" formatCode="#,##0;\-#,##0.00"/>
+    <numFmt numFmtId="218" formatCode="#\!\,##0;&quot;₩&quot;\!\-#\!\,##0\!.00"/>
+    <numFmt numFmtId="219" formatCode="0.000"/>
+    <numFmt numFmtId="220" formatCode="###&quot;m&quot;"/>
+    <numFmt numFmtId="221" formatCode="_ &quot;₩&quot;* #,##0.00_ ;_ &quot;₩&quot;* &quot;₩&quot;\-#,##0.00_ ;_ &quot;₩&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="222" formatCode="&quot;₩&quot;#,##0;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-#,##0"/>
+    <numFmt numFmtId="223" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="224" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="225" formatCode="0.000000"/>
+    <numFmt numFmtId="226" formatCode="&quot;₩&quot;#,##0;&quot;₩&quot;\-#,##0"/>
   </numFmts>
   <fonts count="97">
     <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <sz val="8"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="바탕체"/>
       <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="돋움"/>
       <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <family val="3"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="바탕체"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
+    </font>
+    <font>
       <name val="바탕체"/>
+      <charset val="129"/>
       <family val="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="바탕체"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <b/>
+      <family val="1"/>
+      <b val="1"/>
       <sz val="22"/>
+    </font>
+    <font>
+      <name val="굴림"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <name val="바탕체"/>
+      <charset val="129"/>
       <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="굴림"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
+      <color indexed="10"/>
       <sz val="10"/>
-      <color indexed="10"/>
-      <name val="바탕체"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
+    </font>
+    <font>
       <name val="MS Sans Serif"/>
       <family val="2"/>
-    </font>
-    <font>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="굴림체"/>
+      <charset val="129"/>
+      <family val="3"/>
       <sz val="12"/>
+    </font>
+    <font>
       <name val="굴림체"/>
+      <charset val="129"/>
       <family val="3"/>
+      <i val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="굴림체"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="12"/>
-      <name val="굴림체"/>
       <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <name val="굴림체"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
+    </font>
+    <font>
       <name val="Helv"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="1"/>
-      <color indexed="8"/>
+      <sz val="10"/>
+    </font>
+    <font>
       <name val="Courier"/>
       <family val="3"/>
-    </font>
-    <font>
-      <sz val="12"/>
+      <color indexed="8"/>
+      <sz val="1"/>
+    </font>
+    <font>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="1"/>
-      <color indexed="8"/>
+      <sz val="12"/>
+    </font>
+    <font>
       <name val="Courier"/>
       <family val="3"/>
-    </font>
-    <font>
+      <b val="1"/>
+      <color indexed="8"/>
+      <sz val="1"/>
+    </font>
+    <font>
+      <name val="¹UAAA¼"/>
+      <charset val="129"/>
+      <family val="1"/>
       <sz val="12"/>
+    </font>
+    <font>
+      <name val="ⓒoUAAA¨u"/>
+      <charset val="129"/>
+      <family val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="￥i￠￢￠?o"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="¹ÙÅÁÃ¼"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="µ¸¿ò"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <sz val="9"/>
+    </font>
+    <font>
+      <name val="System"/>
+      <charset val="129"/>
+      <family val="2"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="±¼¸²A¼"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="μ¸¿oA¼"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <sz val="12"/>
+    </font>
+    <font>
       <name val="¹UAAA¼"/>
       <family val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="¹ÙÅÁÃ¼"/>
+      <family val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="μ¸¿o"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="ⓒoUAAA¨u"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
+      <family val="3"/>
       <sz val="11"/>
-      <name val="￥i￠￢￠?o"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="¹ÙÅÁÃ¼"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="µ¸¿ò"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="9"/>
+    </font>
+    <font>
+      <name val="Helv"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="System"/>
+      <color indexed="9"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="돋움체"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Courier"/>
+      <family val="3"/>
+      <i val="1"/>
+      <color indexed="8"/>
+      <sz val="1"/>
+    </font>
+    <font>
+      <name val="Arial"/>
       <family val="2"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="±¼¸²A¼"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="μ¸¿oA¼"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="¹UAAA¼"/>
+      <sz val="8"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="¹ÙÅÁÃ¼"/>
-      <family val="1"/>
-    </font>
-    <font>
+      <b val="1"/>
+      <i val="1"/>
       <sz val="11"/>
-      <name val="μ¸¿o"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
+    </font>
+    <font>
       <name val="Helv"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="9"/>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b val="1"/>
+      <sz val="18"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <color indexed="12"/>
       <sz val="10"/>
+    </font>
+    <font>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
+      <color indexed="12"/>
+      <sz val="8"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Helv"/>
+      <family val="2"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="돋움체"/>
+    </font>
+    <font>
+      <name val="바탕체"/>
+      <charset val="129"/>
+      <family val="1"/>
+      <color indexed="8"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Small Fonts"/>
+      <family val="2"/>
+      <sz val="7"/>
+    </font>
+    <font>
+      <name val="Helv"/>
+      <family val="2"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Book Antiqua"/>
+      <family val="1"/>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Courier New"/>
       <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="1"/>
-      <color indexed="8"/>
-      <name val="Courier"/>
-      <family val="3"/>
-    </font>
-    <font>
+      <sz val="24"/>
+    </font>
+    <font>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <b val="1"/>
       <sz val="8"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
+      <b val="1"/>
+      <i val="1"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="¸iA¶"/>
+      <charset val="129"/>
+      <family val="3"/>
       <sz val="12"/>
-      <name val="Helv"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
+    </font>
+    <font>
+      <name val="굴림체"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <b val="1"/>
+      <sz val="13"/>
+      <u val="single"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <b val="1"/>
+      <sz val="24"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="12"/>
+      <b val="1"/>
+      <sz val="14"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
+      <color indexed="12"/>
       <sz val="8"/>
-      <color indexed="12"/>
-      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <name val="바탕체"/>
+      <charset val="129"/>
       <family val="1"/>
-    </font>
-    <font>
+      <color indexed="24"/>
       <sz val="12"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Helv"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
+    </font>
+    <font>
       <name val="바탕체"/>
+      <charset val="129"/>
       <family val="1"/>
+      <b val="1"/>
+      <color indexed="24"/>
+      <sz val="18"/>
+    </font>
+    <font>
+      <name val="바탕체"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <name val="Small Fonts"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Helv"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Book Antiqua"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="24"/>
-      <name val="Courier New"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="14"/>
+      <b val="1"/>
+      <color indexed="24"/>
+      <sz val="15"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
+      <color indexed="36"/>
+      <sz val="10"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="뼥?ⓒ"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <sz val="14"/>
+    </font>
+    <font>
+      <name val="굴림체"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="뼻뮝"/>
+      <charset val="129"/>
+      <family val="1"/>
       <sz val="12"/>
-      <name val="¸iA¶"/>
+    </font>
+    <font>
+      <name val="돋움체"/>
+      <charset val="129"/>
       <family val="3"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="바탕체"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
+      <family val="1"/>
+      <b val="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="바탕체"/>
+      <charset val="129"/>
+      <family val="1"/>
+      <b val="1"/>
+      <sz val="18"/>
+    </font>
+    <font>
+      <name val="바탕체"/>
+      <charset val="129"/>
+      <family val="1"/>
+      <b val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="궁서체"/>
+      <charset val="129"/>
+      <family val="1"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="궁서체"/>
+      <charset val="129"/>
+      <family val="1"/>
+      <sz val="18"/>
+    </font>
+    <font>
+      <name val="굴림체"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color indexed="16"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="명조"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="한양신명조"/>
+      <charset val="129"/>
+      <family val="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="바탕체"/>
+      <charset val="129"/>
+      <family val="1"/>
+      <color indexed="8"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="돋움체"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color indexed="10"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="굴림체"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <b val="1"/>
+      <sz val="18"/>
+    </font>
+    <font>
+      <name val="돋움"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color indexed="12"/>
+      <sz val="11"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="¹UAAA¼"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color indexed="8"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color indexed="9"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color indexed="10"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color indexed="52"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color indexed="20"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color indexed="60"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <i val="1"/>
+      <color indexed="23"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color indexed="9"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color indexed="52"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color indexed="8"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <color indexed="62"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color indexed="56"/>
+      <sz val="18"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color indexed="56"/>
+      <sz val="15"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color indexed="56"/>
       <sz val="13"/>
-      <name val="굴림체"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
       <family val="3"/>
+      <b val="1"/>
+      <color indexed="56"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
       <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <name val="Arial"/>
+      <family val="3"/>
+      <color indexed="17"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color indexed="63"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <sz val="10"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="24"/>
-      <name val="바탕체"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="24"/>
-      <name val="바탕체"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="24"/>
-      <name val="바탕체"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <u/>
+      <color theme="1"/>
       <sz val="10"/>
-      <color indexed="36"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="뼥?ⓒ"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="굴림체"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="뼻뮝"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="돋움체"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="바탕체"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <name val="바탕체"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="바탕체"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="궁서체"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <name val="궁서체"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="16"/>
-      <name val="굴림체"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="명조"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="한양신명조"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="바탕체"/>
-      <family val="1"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="10"/>
-      <name val="돋움체"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <name val="굴림체"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="¹UAAA¼"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color indexed="56"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="56"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="56"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="31">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -1299,1618 +1219,1618 @@
     </border>
   </borders>
   <cellStyleXfs count="2689">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="3" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="3" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="9" fillId="0" borderId="0">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="3" fillId="0" borderId="0">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="9" fillId="0" borderId="0">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="9" fillId="0" borderId="0">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="3" fillId="0" borderId="0">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="9" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="9" fillId="0" borderId="0">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="3" fillId="0" borderId="0">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="9" fillId="0" borderId="0">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="9" fillId="0" borderId="0">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="3" fillId="0" borderId="0">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="3" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="9" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="9" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="3" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="9" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="9" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="9" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="9" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="192" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="192" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="3" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="3" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="3" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="196" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="196" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="3" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="9" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="3" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="194" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="195" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="193" fontId="3" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="196" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="196" fontId="4" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="189" fontId="9" fillId="0" borderId="4">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="197" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="197" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="185" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="197" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="197" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="185" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="185" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="197" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="185" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="198" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="199" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="198" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="199" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="197" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="200" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="186" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="187" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="186" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="187" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="185" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="188" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="200" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="188" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -2919,7 +2839,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="201" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="189" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -4260,7 +4180,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="190" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
@@ -4490,10 +4410,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="190" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="190" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -4501,24 +4421,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="190" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="190" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="190" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="190" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="190" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="190" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="190" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="190" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="190" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="190" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="190" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="190" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="190" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="190" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -4532,158 +4452,158 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="201" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="202" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="189" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="190" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyProtection="1">
+      <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="203" fontId="15" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="204" fontId="15" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="204" fontId="15" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="204" fontId="15" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="204" fontId="15" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="204" fontId="15" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="204" fontId="15" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="204" fontId="15" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="204" fontId="15" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="204" fontId="15" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="204" fontId="15" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="191" fontId="15" fillId="0" borderId="0" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="192" fontId="15" fillId="0" borderId="0" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="192" fontId="15" fillId="0" borderId="0" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="192" fontId="15" fillId="0" borderId="0" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="192" fontId="15" fillId="0" borderId="0" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="192" fontId="15" fillId="0" borderId="0" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="192" fontId="15" fillId="0" borderId="0" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="192" fontId="15" fillId="0" borderId="0" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="192" fontId="15" fillId="0" borderId="0" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="192" fontId="15" fillId="0" borderId="0" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="192" fontId="15" fillId="0" borderId="0" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="205" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="193" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyProtection="1">
+      <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="206" fontId="11" fillId="3" borderId="5">
+    <xf numFmtId="194" fontId="11" fillId="3" borderId="5" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="207" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="195" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="208" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="196" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="208" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="196" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="209" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="187" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="187" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="175" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="210" fontId="15" fillId="0" borderId="0">
-      <protection locked="0"/>
+    <xf numFmtId="198" fontId="15" fillId="0" borderId="0" applyProtection="1">
+      <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="211" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="199" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="212" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="200" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="212" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="200" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="213" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="201" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="4" fontId="15" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="214" fontId="15" fillId="0" borderId="0">
-      <protection locked="0"/>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="202" fontId="15" fillId="0" borderId="0" applyProtection="1">
+      <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -4734,14 +4654,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="7">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="7" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="15" fillId="0" borderId="0">
-      <protection locked="0"/>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" applyProtection="1">
+      <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
@@ -4749,80 +4669,80 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyProtection="1">
+      <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="215" fontId="3" fillId="0" borderId="1"/>
-    <xf numFmtId="216" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="217" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="203" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="204" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="205" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0"/>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="distributed"/>
     </xf>
     <xf numFmtId="38" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="40" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="218" fontId="15" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="219" fontId="15" fillId="0" borderId="0">
-      <protection locked="0"/>
+    <xf numFmtId="206" fontId="15" fillId="0" borderId="0" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="207" fontId="15" fillId="0" borderId="0" applyProtection="1">
+      <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyProtection="1">
+      <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="38" fontId="35" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="220" fontId="11" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="220" fontId="11" fillId="0" borderId="0">
-      <protection locked="0"/>
+    <xf numFmtId="208" fontId="11" fillId="0" borderId="0" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="208" fontId="11" fillId="0" borderId="0" applyProtection="1">
+      <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="10"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
-      <protection locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="10" fontId="35" fillId="5" borderId="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0"/>
@@ -4830,18 +4750,18 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="11"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="221" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="209" fontId="44" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="222" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="210" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="223" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="211" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
@@ -4854,22 +4774,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyProtection="1">
+      <protection locked="0" hidden="0"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="6" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
@@ -4877,13 +4797,13 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="6" borderId="9">
+    <xf numFmtId="0" fontId="53" fillId="6" borderId="9" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
@@ -4891,8 +4811,8 @@
     <xf numFmtId="37" fontId="35" fillId="7" borderId="0"/>
     <xf numFmtId="37" fontId="35" fillId="0" borderId="0"/>
     <xf numFmtId="3" fontId="55" fillId="0" borderId="10"/>
-    <xf numFmtId="224" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="225" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="212" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="213" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
     <xf numFmtId="2" fontId="56" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
@@ -4909,21 +4829,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="3">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="3" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyProtection="1">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="40" fontId="60" fillId="0" borderId="0"/>
@@ -4934,10 +4854,10 @@
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="61" fillId="5" borderId="0">
+    <xf numFmtId="9" fontId="61" fillId="5" borderId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="61" fillId="0" borderId="0">
+    <xf numFmtId="10" fontId="61" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0"/>
@@ -4952,24 +4872,24 @@
     <xf numFmtId="3" fontId="63" fillId="0" borderId="12"/>
     <xf numFmtId="3" fontId="63" fillId="0" borderId="13"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="14">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="14" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="67" fillId="0" borderId="0">
+    <xf numFmtId="3" fontId="67" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="68" fillId="0" borderId="0">
+    <xf numFmtId="3" fontId="68" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="226" fontId="69" fillId="0" borderId="0">
+    <xf numFmtId="214" fontId="69" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="227" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="215" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -5031,264 +4951,264 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="15"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="1">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="228" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="229" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="229" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="229" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="230" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="229" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="230" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="230" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="229" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="230" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="229" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="229" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="229" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="229" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="230" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="230" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="230" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="216" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="217" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="217" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="217" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="218" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="217" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="218" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="218" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="217" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="218" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="217" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="217" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="217" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="217" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="218" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="218" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="218" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
+    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="232" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="220" fontId="44" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
+    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="232" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="220" fontId="44" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="232" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="220" fontId="44" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="233" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="221" fontId="44" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
+    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
+    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
+    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="232" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="220" fontId="44" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="232" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="220" fontId="44" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="233" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="221" fontId="44" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
+    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
+    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
+    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="232" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="220" fontId="44" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="232" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="220" fontId="44" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="233" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="221" fontId="44" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
+    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
+    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="232" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="220" fontId="44" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
+    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="232" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="220" fontId="44" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="232" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="220" fontId="44" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="233" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="221" fontId="44" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
+    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
+    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="233" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="221" fontId="44" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
+    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
+    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
+    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="232" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="220" fontId="44" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="232" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="220" fontId="44" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="233" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="221" fontId="44" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
+    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
+    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
+    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="232" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="220" fontId="44" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="232" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="220" fontId="44" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="233" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="221" fontId="44" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
+    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
+    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
+    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="234" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="222" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="234" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="222" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="234" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="222" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="235" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="223" fontId="44" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="233" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="221" fontId="44" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="201" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="189" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="232" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="220" fontId="44" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="232" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="220" fontId="44" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="233" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="221" fontId="44" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
+    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
+    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
+    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="232" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="220" fontId="44" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="232" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="220" fontId="44" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="233" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="221" fontId="44" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
+    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
+    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
+    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="232" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="220" fontId="44" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="232" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="220" fontId="44" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="233" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="221" fontId="44" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
+    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
+    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="235" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="223" fontId="44" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="233" fontId="44" fillId="0" borderId="0">
+    <xf numFmtId="221" fontId="44" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="201" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="189" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="234" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="222" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="234" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="222" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="234" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="222" fontId="3" fillId="0" borderId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="56" fillId="0" borderId="0"/>
@@ -5296,11 +5216,11 @@
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="212" fontId="3" fillId="0" borderId="1">
+    <xf numFmtId="200" fontId="3" fillId="0" borderId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="236" fontId="61" fillId="5" borderId="0">
+    <xf numFmtId="224" fontId="61" fillId="5" borderId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
@@ -5309,7 +5229,7 @@
     <xf numFmtId="10" fontId="56" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -5318,68 +5238,68 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="6"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="237" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="238" fontId="56" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="78" fillId="9" borderId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="225" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="226" fontId="56" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="78" fillId="9" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="78" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="78" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="78" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="78" fillId="13" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="78" fillId="14" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="78" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="78" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="78" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="78" fillId="12" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="78" fillId="15" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="78" fillId="18" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="19" borderId="0">
+    <xf numFmtId="0" fontId="79" fillId="19" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="79" fillId="16" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="79" fillId="17" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="79" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="79" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="79" fillId="22" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0"/>
@@ -5389,106 +5309,112 @@
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="79" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="79" fillId="23" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="79" fillId="24" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="79" fillId="25" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="79" fillId="20" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="79" fillId="21" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="79" fillId="26" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="27" borderId="17">
+    <xf numFmtId="0" fontId="81" fillId="27" borderId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="82" fillId="10" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="18">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="18" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="83" fillId="29" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="30" borderId="19">
+    <xf numFmtId="0" fontId="85" fillId="30" borderId="19" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="20">
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="20" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="21">
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="21" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="14" borderId="17">
+    <xf numFmtId="0" fontId="88" fillId="14" borderId="17" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="22">
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="22" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="23">
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="23" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="24">
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="24" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="93" fillId="11" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="27" borderId="25">
+    <xf numFmtId="0" fontId="94" fillId="27" borderId="25" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0">
+      <protection locked="0" hidden="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2689">
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="표준 3" xfId="2"/>
+    <cellStyle name="표준 4" xfId="3"/>
+    <cellStyle name="표준 5" xfId="4"/>
     <cellStyle name="_x0014_" xfId="5"/>
     <cellStyle name="          _x000d__x000a_386grabber=vga.3gr_x000d__x000a_" xfId="6"/>
     <cellStyle name="&quot;큰제목&quot;" xfId="7"/>
@@ -7691,25 +7617,7 @@
     <cellStyle name="19990216" xfId="2204"/>
     <cellStyle name="¹eºÐA²_±aA¸" xfId="2205"/>
     <cellStyle name="2)" xfId="2206"/>
-    <cellStyle name="20% - 강조색1 2" xfId="2636"/>
-    <cellStyle name="20% - 강조색2 2" xfId="2637"/>
-    <cellStyle name="20% - 강조색3 2" xfId="2638"/>
-    <cellStyle name="20% - 강조색4 2" xfId="2639"/>
-    <cellStyle name="20% - 강조색5 2" xfId="2640"/>
-    <cellStyle name="20% - 강조색6 2" xfId="2641"/>
     <cellStyle name="³¯â¥" xfId="2207"/>
-    <cellStyle name="40% - 강조색1 2" xfId="2642"/>
-    <cellStyle name="40% - 강조색2 2" xfId="2643"/>
-    <cellStyle name="40% - 강조색3 2" xfId="2644"/>
-    <cellStyle name="40% - 강조색4 2" xfId="2645"/>
-    <cellStyle name="40% - 강조색5 2" xfId="2646"/>
-    <cellStyle name="40% - 강조색6 2" xfId="2647"/>
-    <cellStyle name="60% - 강조색1 2" xfId="2648"/>
-    <cellStyle name="60% - 강조색2 2" xfId="2649"/>
-    <cellStyle name="60% - 강조색3 2" xfId="2650"/>
-    <cellStyle name="60% - 강조색4 2" xfId="2651"/>
-    <cellStyle name="60% - 강조색5 2" xfId="2652"/>
-    <cellStyle name="60% - 강조색6 2" xfId="2653"/>
     <cellStyle name="_x0014_7." xfId="2208"/>
     <cellStyle name="A¨­￠￢￠O [0]_INQUIRY ￠?￥i¨u¡AAⓒ￢Aⓒª " xfId="2209"/>
     <cellStyle name="A¨­￠￢￠O_INQUIRY ￠?￥i¨u¡AAⓒ￢Aⓒª " xfId="2210"/>
@@ -7777,21 +7685,15 @@
     <cellStyle name="Ç¥ÁØ_Á¾ÇÕ½Å¼³ _광케이블피스표" xfId="2272"/>
     <cellStyle name="C￥AØ_A¾CO½A¼³ _기지국집계" xfId="2273"/>
     <cellStyle name="Ç¥ÁØ_Á¾ÇÕ½Å¼³ _기지국집계" xfId="2274"/>
-    <cellStyle name="C￥AØ_A¾CO½A¼³ _기지국집계 2" xfId="2654"/>
     <cellStyle name="Ç¥ÁØ_Á¾ÇÕ½Å¼³ _설계(sample-파워콤-수원-용인국사)" xfId="2275"/>
-    <cellStyle name="C￥AØ_A¾CO½A¼³ _설계(sample-파워콤-수원-용인국사) 2" xfId="2655"/>
     <cellStyle name="Ç¥ÁØ_Á¾ÇÕ½Å¼³ _설계(sample-파워콤-수원-용인국사)_ADM16광단국설계" xfId="2276"/>
-    <cellStyle name="C￥AØ_A¾CO½A¼³ _설계(sample-파워콤-수원-용인국사)_ADM16광단국설계 2" xfId="2656"/>
     <cellStyle name="Ç¥ÁØ_Á¾ÇÕÃ¶°ÅºÐ " xfId="2277"/>
     <cellStyle name="C￥AØ_A¾COA¶°AºÐ _광케이블피스표" xfId="2278"/>
     <cellStyle name="Ç¥ÁØ_Á¾ÇÕÃ¶°ÅºÐ _광케이블피스표" xfId="2279"/>
     <cellStyle name="C￥AØ_A¾COA¶°AºÐ _기지국집계" xfId="2280"/>
     <cellStyle name="Ç¥ÁØ_Á¾ÇÕÃ¶°ÅºÐ _기지국집계" xfId="2281"/>
-    <cellStyle name="C￥AØ_A¾COA¶°AºÐ _기지국집계 2" xfId="2657"/>
     <cellStyle name="Ç¥ÁØ_Á¾ÇÕÃ¶°ÅºÐ _설계(sample-파워콤-수원-용인국사)" xfId="2282"/>
-    <cellStyle name="C￥AØ_A¾COA¶°AºÐ _설계(sample-파워콤-수원-용인국사) 2" xfId="2658"/>
     <cellStyle name="Ç¥ÁØ_Á¾ÇÕÃ¶°ÅºÐ _설계(sample-파워콤-수원-용인국사)_ADM16광단국설계" xfId="2283"/>
-    <cellStyle name="C￥AØ_A¾COA¶°AºÐ _설계(sample-파워콤-수원-용인국사)_ADM16광단국설계 2" xfId="2659"/>
     <cellStyle name="Ç¥ÁØ_Àü·Â¼ÕÀÍºÐ¼®" xfId="2284"/>
     <cellStyle name="C￥AØ_Au·A¼OAIºÐ¼R" xfId="2285"/>
     <cellStyle name="Ç¥ÁØ_Áý°èÇ¥(2¿ù) " xfId="2286"/>
@@ -7799,7 +7701,6 @@
     <cellStyle name="Ç¥ÁØ_laroux_1_Á¾ÇÕ½Å¼³ " xfId="2288"/>
     <cellStyle name="C￥AØ_laroux_1_A¾COA¶°AºÐ " xfId="2289"/>
     <cellStyle name="Ç¥ÁØ_laroux_1_Á¾ÇÕÃ¶°ÅºÐ " xfId="2290"/>
-    <cellStyle name="C￥AØ_laroux_1_A¾COA¶°AºÐ  2" xfId="2660"/>
     <cellStyle name="Ç¥ÁØ_laroux_Á¾ÇÕ½Å¼³ " xfId="2291"/>
     <cellStyle name="C￥AØ_laroux_A¾COA¶°AºÐ " xfId="2292"/>
     <cellStyle name="Ç¥ÁØ_laroux_Á¾ÇÕÃ¶°ÅºÐ " xfId="2293"/>
@@ -7907,14 +7808,6 @@
     <cellStyle name="W?rung [0]_Ausdruck RUND (D)" xfId="2395"/>
     <cellStyle name="W?rung_Ausdruck RUND (D)" xfId="2396"/>
     <cellStyle name="Ͱ" xfId="2397"/>
-    <cellStyle name="강조색1 2" xfId="2661"/>
-    <cellStyle name="강조색2 2" xfId="2662"/>
-    <cellStyle name="강조색3 2" xfId="2663"/>
-    <cellStyle name="강조색4 2" xfId="2664"/>
-    <cellStyle name="강조색5 2" xfId="2665"/>
-    <cellStyle name="강조색6 2" xfId="2666"/>
-    <cellStyle name="경고문 2" xfId="2667"/>
-    <cellStyle name="계산 2" xfId="2668"/>
     <cellStyle name="고정소숫점" xfId="2398"/>
     <cellStyle name="고정출력1" xfId="2399"/>
     <cellStyle name="고정출력2" xfId="2400"/>
@@ -7929,7 +7822,6 @@
     <cellStyle name="咬訌裝?INCOM8" xfId="2409"/>
     <cellStyle name="咬訌裝?INCOM9" xfId="2410"/>
     <cellStyle name="咬訌裝?PRIB11" xfId="2411"/>
-    <cellStyle name="나쁨 2" xfId="2669"/>
     <cellStyle name="날짜" xfId="2412"/>
     <cellStyle name="내역서" xfId="2413"/>
     <cellStyle name="닠러" xfId="2414"/>
@@ -7941,14 +7833,12 @@
     <cellStyle name="똿떓죶Ø괻_PRODUCT DETAIL Q1" xfId="2420"/>
     <cellStyle name="똿뗦먛귟 [0.00]_laroux" xfId="2421"/>
     <cellStyle name="똿뗦먛귟_laroux" xfId="2422"/>
-    <cellStyle name="메모 2" xfId="2670"/>
     <cellStyle name="묮뎋 [0.00]_PRODUCT DETAIL Q1" xfId="2423"/>
     <cellStyle name="묮뎋_PRODUCT DETAIL Q1" xfId="2424"/>
     <cellStyle name="믅됞 [0.00]_laroux" xfId="2425"/>
     <cellStyle name="믅됞_laroux" xfId="2426"/>
     <cellStyle name="백분율 [0]" xfId="2427"/>
     <cellStyle name="백분율 [2]" xfId="2428"/>
-    <cellStyle name="보통 2" xfId="2671"/>
     <cellStyle name="뷭?" xfId="2429"/>
     <cellStyle name="뷭? 2" xfId="2430"/>
     <cellStyle name="뷭? 3" xfId="2431"/>
@@ -7963,16 +7853,12 @@
     <cellStyle name="설계서-소제목" xfId="2440"/>
     <cellStyle name="설계서-타이틀" xfId="2441"/>
     <cellStyle name="설계서-항목" xfId="2442"/>
-    <cellStyle name="설명 텍스트 2" xfId="2672"/>
-    <cellStyle name="셀 확인 2" xfId="2673"/>
     <cellStyle name="수당" xfId="2443"/>
     <cellStyle name="수당2" xfId="2444"/>
     <cellStyle name="숫자(R)" xfId="2445"/>
-    <cellStyle name="쉼표 [0] 10" xfId="2675"/>
     <cellStyle name="쉼표 [0] 2" xfId="2446"/>
     <cellStyle name="쉼표 [0] 3" xfId="2447"/>
     <cellStyle name="쉼표 [0] 4" xfId="2448"/>
-    <cellStyle name="쉼표 [0] 5" xfId="2674"/>
     <cellStyle name="스타일 1" xfId="2449"/>
     <cellStyle name="스타일 10" xfId="2450"/>
     <cellStyle name="스타일 11" xfId="2451"/>
@@ -8034,9 +7920,7 @@
     <cellStyle name="스타일 8" xfId="2507"/>
     <cellStyle name="스타일 9" xfId="2508"/>
     <cellStyle name="안건회계법인" xfId="2509"/>
-    <cellStyle name="연결된 셀 2" xfId="2676"/>
     <cellStyle name="영호" xfId="2510"/>
-    <cellStyle name="요약 2" xfId="2677"/>
     <cellStyle name="원" xfId="2511"/>
     <cellStyle name="원_0009김포공항LED교체공사(광일)" xfId="2512"/>
     <cellStyle name="원_0011KIST소각설비제작설치" xfId="2513"/>
@@ -8134,19 +8018,11 @@
     <cellStyle name="일_회선설계서 (2)_신서산자통신고" xfId="2605"/>
     <cellStyle name="일_회선설계서 (2)_신시흥관련광단국PITR" xfId="2606"/>
     <cellStyle name="일_회선설계서 (2)_울주지통(부산)" xfId="2607"/>
-    <cellStyle name="입력 2" xfId="2678"/>
     <cellStyle name="자리수" xfId="2608"/>
     <cellStyle name="자리수0" xfId="2609"/>
     <cellStyle name="적색" xfId="2610"/>
     <cellStyle name="점선" xfId="2611"/>
-    <cellStyle name="제목 1 2" xfId="2680"/>
-    <cellStyle name="제목 2 2" xfId="2681"/>
-    <cellStyle name="제목 3 2" xfId="2682"/>
-    <cellStyle name="제목 4 2" xfId="2683"/>
-    <cellStyle name="제목 5" xfId="2679"/>
-    <cellStyle name="좋음 2" xfId="2684"/>
     <cellStyle name="지정되지 않음" xfId="2612"/>
-    <cellStyle name="출력 2" xfId="2685"/>
     <cellStyle name="콤마 []" xfId="2613"/>
     <cellStyle name="콤마 [0]" xfId="2614"/>
     <cellStyle name="콤마 [2]" xfId="2615"/>
@@ -8154,38 +8030,145 @@
     <cellStyle name="콤마_  종  합  " xfId="2617"/>
     <cellStyle name="콤마판지역별판매현황_순매출현황" xfId="2618"/>
     <cellStyle name="퍼센트" xfId="2619"/>
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 10" xfId="2633"/>
-    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="표준 2 3" xfId="2620"/>
     <cellStyle name="표준 2 2" xfId="2621"/>
-    <cellStyle name="표준 2 2 2" xfId="2688"/>
-    <cellStyle name="표준 2 3" xfId="2620"/>
-    <cellStyle name="표준 2 4" xfId="2687"/>
     <cellStyle name="표준 2_기초공사" xfId="2622"/>
     <cellStyle name="표준 26" xfId="2623"/>
-    <cellStyle name="표준 3" xfId="2"/>
     <cellStyle name="표준 3 2" xfId="2624"/>
-    <cellStyle name="표준 4" xfId="3"/>
-    <cellStyle name="표준 5" xfId="4"/>
     <cellStyle name="표준 6" xfId="2625"/>
-    <cellStyle name="표준 7" xfId="2634"/>
-    <cellStyle name="표준 8" xfId="2632"/>
-    <cellStyle name="표준 9" xfId="2635"/>
     <cellStyle name="標準_Akia(F）-8" xfId="2626"/>
-    <cellStyle name="하이퍼링크 2" xfId="2686"/>
     <cellStyle name="합산" xfId="2627"/>
     <cellStyle name="垓" xfId="2628"/>
     <cellStyle name="호표" xfId="2629"/>
     <cellStyle name="화폐기호" xfId="2630"/>
     <cellStyle name="화폐기호0" xfId="2631"/>
+    <cellStyle name="표준 8" xfId="2632"/>
+    <cellStyle name="표준 10" xfId="2633"/>
+    <cellStyle name="표준 7" xfId="2634"/>
+    <cellStyle name="표준 9" xfId="2635"/>
+    <cellStyle name="20% - 강조색1 2" xfId="2636"/>
+    <cellStyle name="20% - 강조색2 2" xfId="2637"/>
+    <cellStyle name="20% - 강조색3 2" xfId="2638"/>
+    <cellStyle name="20% - 강조색4 2" xfId="2639"/>
+    <cellStyle name="20% - 강조색5 2" xfId="2640"/>
+    <cellStyle name="20% - 강조색6 2" xfId="2641"/>
+    <cellStyle name="40% - 강조색1 2" xfId="2642"/>
+    <cellStyle name="40% - 강조색2 2" xfId="2643"/>
+    <cellStyle name="40% - 강조색3 2" xfId="2644"/>
+    <cellStyle name="40% - 강조색4 2" xfId="2645"/>
+    <cellStyle name="40% - 강조색5 2" xfId="2646"/>
+    <cellStyle name="40% - 강조색6 2" xfId="2647"/>
+    <cellStyle name="60% - 강조색1 2" xfId="2648"/>
+    <cellStyle name="60% - 강조색2 2" xfId="2649"/>
+    <cellStyle name="60% - 강조색3 2" xfId="2650"/>
+    <cellStyle name="60% - 강조색4 2" xfId="2651"/>
+    <cellStyle name="60% - 강조색5 2" xfId="2652"/>
+    <cellStyle name="60% - 강조색6 2" xfId="2653"/>
+    <cellStyle name="C￥AØ_A¾CO½A¼³ _기지국집계 2" xfId="2654"/>
+    <cellStyle name="C￥AØ_A¾CO½A¼³ _설계(sample-파워콤-수원-용인국사) 2" xfId="2655"/>
+    <cellStyle name="C￥AØ_A¾CO½A¼³ _설계(sample-파워콤-수원-용인국사)_ADM16광단국설계 2" xfId="2656"/>
+    <cellStyle name="C￥AØ_A¾COA¶°AºÐ _기지국집계 2" xfId="2657"/>
+    <cellStyle name="C￥AØ_A¾COA¶°AºÐ _설계(sample-파워콤-수원-용인국사) 2" xfId="2658"/>
+    <cellStyle name="C￥AØ_A¾COA¶°AºÐ _설계(sample-파워콤-수원-용인국사)_ADM16광단국설계 2" xfId="2659"/>
+    <cellStyle name="C￥AØ_laroux_1_A¾COA¶°AºÐ  2" xfId="2660"/>
+    <cellStyle name="강조색1 2" xfId="2661"/>
+    <cellStyle name="강조색2 2" xfId="2662"/>
+    <cellStyle name="강조색3 2" xfId="2663"/>
+    <cellStyle name="강조색4 2" xfId="2664"/>
+    <cellStyle name="강조색5 2" xfId="2665"/>
+    <cellStyle name="강조색6 2" xfId="2666"/>
+    <cellStyle name="경고문 2" xfId="2667"/>
+    <cellStyle name="계산 2" xfId="2668"/>
+    <cellStyle name="나쁨 2" xfId="2669"/>
+    <cellStyle name="메모 2" xfId="2670"/>
+    <cellStyle name="보통 2" xfId="2671"/>
+    <cellStyle name="설명 텍스트 2" xfId="2672"/>
+    <cellStyle name="셀 확인 2" xfId="2673"/>
+    <cellStyle name="쉼표 [0] 5" xfId="2674"/>
+    <cellStyle name="쉼표 [0] 10" xfId="2675"/>
+    <cellStyle name="연결된 셀 2" xfId="2676"/>
+    <cellStyle name="요약 2" xfId="2677"/>
+    <cellStyle name="입력 2" xfId="2678"/>
+    <cellStyle name="제목 5" xfId="2679"/>
+    <cellStyle name="제목 1 2" xfId="2680"/>
+    <cellStyle name="제목 2 2" xfId="2681"/>
+    <cellStyle name="제목 3 2" xfId="2682"/>
+    <cellStyle name="제목 4 2" xfId="2683"/>
+    <cellStyle name="좋음 2" xfId="2684"/>
+    <cellStyle name="출력 2" xfId="2685"/>
+    <cellStyle name="하이퍼링크 2" xfId="2686"/>
+    <cellStyle name="표준 2 4" xfId="2687"/>
+    <cellStyle name="표준 2 2 2" xfId="2688"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -8475,225 +8458,442 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="26.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30" style="1" customWidth="1"/>
-    <col min="5" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col width="26.75" customWidth="1" style="1" min="1" max="1"/>
+    <col width="25.25" customWidth="1" style="1" min="2" max="2"/>
+    <col width="24.25" customWidth="1" style="1" min="3" max="3"/>
+    <col width="30" customWidth="1" style="1" min="4" max="4"/>
+    <col width="9" customWidth="1" style="1" min="5" max="7"/>
+    <col width="9" customWidth="1" style="1" min="8" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="30" customHeight="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
+    <row r="1" ht="30" customHeight="1" s="5">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>주소</t>
+        </is>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>경도</t>
+        </is>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>위도</t>
+        </is>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>MGRS</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
+    <row r="2">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>송학동1가 11-1</t>
+        </is>
       </c>
-      <c r="B2"/>
-      <c r="C2"/>
-      <c r="D2"/>
+      <c r="B2" s="0" t="n">
+        <v>126.6221322</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>37.4745802</v>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>52SBG8973350176</t>
+        </is>
+      </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>답동 18-4</t>
+        </is>
       </c>
-      <c r="B3"/>
-      <c r="C3"/>
-      <c r="D3"/>
+      <c r="B3" s="0" t="n">
+        <v>126.6277455</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>37.4697421</v>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>52SBG9021549627</t>
+        </is>
+      </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>신생동 2-44</t>
+        </is>
       </c>
-      <c r="B4"/>
-      <c r="C4"/>
-      <c r="D4"/>
+      <c r="B4" s="0" t="n">
+        <v>126.625215</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>37.4703272</v>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>52SBG8999349697</t>
+        </is>
+      </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>7</v>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>사동 18-3</t>
+        </is>
       </c>
-      <c r="B5"/>
-      <c r="C5"/>
-      <c r="D5"/>
+      <c r="B5" s="0" t="n">
+        <v>126.6259499</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>37.4696447</v>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>52SBG9005649620</t>
+        </is>
+      </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>전동 25-97</t>
+        </is>
       </c>
-      <c r="B6"/>
-      <c r="C6"/>
-      <c r="D6"/>
+      <c r="B6" s="0" t="n">
+        <v>126.6268065</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>37.4789243</v>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>52SBG9015850648</t>
+        </is>
+      </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
-        <v>9</v>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>답동 10-16</t>
+        </is>
       </c>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
+      <c r="B7" s="0" t="n">
+        <v>126.6302839</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>37.4690301</v>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>52SBG9043849542</t>
+        </is>
+      </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
-        <v>10</v>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>답동 6</t>
+        </is>
       </c>
-      <c r="B8"/>
-      <c r="C8"/>
-      <c r="D8"/>
+      <c r="B8" s="0" t="n">
+        <v>126.6285263</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>37.470254</v>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>52SBG9028649682</t>
+        </is>
+      </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
-        <v>11</v>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>송학동 2가 18</t>
+        </is>
       </c>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
+      <c r="B9" s="0" t="n">
+        <v>126.6243847</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>37.4741829</v>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>52SBG8993150127</t>
+        </is>
+      </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
-        <v>12</v>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>관동3가 1-4</t>
+        </is>
       </c>
-      <c r="B10"/>
-      <c r="C10"/>
-      <c r="D10"/>
+      <c r="B10" s="0" t="n">
+        <v>126.6254795</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>37.4719936</v>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>52SBG9002149882</t>
+        </is>
+      </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
-        <v>13</v>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>신생동 2-1</t>
+        </is>
       </c>
-      <c r="B11"/>
-      <c r="C11"/>
-      <c r="D11"/>
+      <c r="B11" s="0" t="n">
+        <v>126.625029</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>37.4707918</v>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>52SBG8997849749</t>
+        </is>
+      </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3" t="s">
-        <v>14</v>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>신포동 18-8</t>
+        </is>
       </c>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
+      <c r="B12" s="0" t="n">
+        <v>126.6268735</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>37.4703195</v>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>52SBG9014049693</t>
+        </is>
+      </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3" t="s">
-        <v>15</v>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>중앙동 4가 7-1</t>
+        </is>
       </c>
-      <c r="B13"/>
-      <c r="C13"/>
-      <c r="D13"/>
+      <c r="B13" s="0" t="n">
+        <v>126.6239459</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>37.47172070000001</v>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>52SBG8988549855</t>
+        </is>
+      </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3" t="s">
-        <v>16</v>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>중앙동 4가 8</t>
+        </is>
       </c>
-      <c r="B14"/>
-      <c r="C14"/>
-      <c r="D14"/>
+      <c r="B14" s="0" t="n">
+        <v>126.6234518</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>37.47129779999999</v>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>52SBG8984049809</t>
+        </is>
+      </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3" t="s">
-        <v>17</v>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>송학동3가 3</t>
+        </is>
       </c>
-      <c r="B15"/>
-      <c r="C15"/>
-      <c r="D15"/>
+      <c r="B15" s="0" t="n">
+        <v>126.6256161</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>37.4734864</v>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>52SBG9003850047</t>
+        </is>
+      </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="3" t="s">
-        <v>18</v>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">답동 9 </t>
+        </is>
       </c>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
+      <c r="B16" s="0" t="n">
+        <v>126.629738</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>37.4699554</v>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>52SBG9039249646</t>
+        </is>
+      </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="3" t="s">
-        <v>19</v>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>해안동 2가 4</t>
+        </is>
       </c>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
+      <c r="B17" s="0" t="n">
+        <v>126.6213972</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>37.4717559</v>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>52SBG8966049864</t>
+        </is>
+      </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="3" t="s">
-        <v>20</v>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>사동 29</t>
+        </is>
       </c>
-      <c r="D18"/>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>52SBG8966049864</t>
+        </is>
+      </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="3" t="s">
-        <v>21</v>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>송학동 2가 16</t>
+        </is>
       </c>
-      <c r="B19"/>
-      <c r="C19"/>
-      <c r="D19"/>
+      <c r="B19" s="0" t="n">
+        <v>126.6235826</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>37.4733492</v>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>52SBG8985750036</t>
+        </is>
+      </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="3" t="s">
-        <v>22</v>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>사동 2-1</t>
+        </is>
       </c>
-      <c r="B20"/>
-      <c r="C20"/>
-      <c r="D20"/>
+      <c r="B20" s="0" t="n">
+        <v>128.7553822</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>35.8117482</v>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>52SDE7790063096</t>
+        </is>
+      </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="3" t="s">
-        <v>23</v>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>신생동 28</t>
+        </is>
       </c>
-      <c r="B21"/>
-      <c r="C21"/>
-      <c r="D21"/>
+      <c r="B21" s="0" t="n">
+        <v>126.6290434</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>37.4676272</v>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>52SBG9032449389</t>
+        </is>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/test.xlsx
+++ b/test.xlsx
@@ -1,722 +1,802 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="360" yWindow="45" windowWidth="37755" windowHeight="17970" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="37755" windowHeight="17970"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>주소</t>
+  </si>
+  <si>
+    <t>경도</t>
+  </si>
+  <si>
+    <t>위도</t>
+  </si>
+  <si>
+    <t>MGRS</t>
+  </si>
+  <si>
+    <t>송학동1가 11-1</t>
+  </si>
+  <si>
+    <t>답동 18-4</t>
+  </si>
+  <si>
+    <t>신생동 2-44</t>
+  </si>
+  <si>
+    <t>사동 18-3</t>
+  </si>
+  <si>
+    <t>전동 25-97</t>
+  </si>
+  <si>
+    <t>답동 10-16</t>
+  </si>
+  <si>
+    <t>답동 6</t>
+  </si>
+  <si>
+    <t>송학동 2가 18</t>
+  </si>
+  <si>
+    <t>관동3가 1-4</t>
+  </si>
+  <si>
+    <t>신생동 2-1</t>
+  </si>
+  <si>
+    <t>신포동 18-8</t>
+  </si>
+  <si>
+    <t>중앙동 4가 7-1</t>
+  </si>
+  <si>
+    <t>중앙동 4가 8</t>
+  </si>
+  <si>
+    <t>송학동3가 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">답동 9 </t>
+  </si>
+  <si>
+    <t>해안동 2가 4</t>
+  </si>
+  <si>
+    <t>사동 29</t>
+  </si>
+  <si>
+    <t>송학동 2가 16</t>
+  </si>
+  <si>
+    <t>사동 2-1</t>
+  </si>
+  <si>
+    <t>신생동 28</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="63">
-    <numFmt numFmtId="164" formatCode="#,##0.0"/>
-    <numFmt numFmtId="165" formatCode="#,##0.000"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0____"/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="0.0_);[Red]\(0.0\)"/>
-    <numFmt numFmtId="169" formatCode="#,##0;\(\-#,##0\)"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.00_-;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_ &quot;₩&quot;* #,##0.00_ ;_ &quot;₩&quot;* &quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-#,##0.00_ ;_ &quot;₩&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="172" formatCode="#,##0_ "/>
-    <numFmt numFmtId="173" formatCode="_-* #,##0_-;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="174" formatCode="yyyy&quot;/&quot;m&quot;/&quot;d"/>
-    <numFmt numFmtId="175" formatCode="_ &quot;₩&quot;* #,##0.00_ ;_ &quot;₩&quot;* \-#,##0.00_ ;_ &quot;₩&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0%"/>
-    <numFmt numFmtId="177" formatCode="#"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * &quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="\(#,##0.0\)"/>
-    <numFmt numFmtId="180" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="181" formatCode="_ * #,##0_ ;_ * &quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="182" formatCode="yy&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-m&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-d&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\ h:mm"/>
-    <numFmt numFmtId="183" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="184" formatCode="_-* #,##0_-;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="185" formatCode="&quot;₩&quot;\!\$#\!\,##0_);[Red]&quot;₩&quot;\!\(&quot;₩&quot;\!\$#\!\,##0&quot;₩&quot;\!\)"/>
-    <numFmt numFmtId="186" formatCode="0\!.0000000000000000"/>
-    <numFmt numFmtId="187" formatCode="&quot;$&quot;#\!\,##0\!.00_);[Red]&quot;₩&quot;\!\(&quot;$&quot;#\!\,##0\!.00&quot;₩&quot;\!\)"/>
-    <numFmt numFmtId="188" formatCode="_-* #,##0.00_-;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="189" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="190" formatCode="&quot;₩&quot;#,##0.00;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-&quot;₩&quot;#,##0.00"/>
-    <numFmt numFmtId="191" formatCode="#.00"/>
-    <numFmt numFmtId="192" formatCode="#."/>
-    <numFmt numFmtId="193" formatCode="&quot;₩&quot;#,##0.00;&quot;₩&quot;\-#,##0.00"/>
-    <numFmt numFmtId="194" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="195" formatCode="_ &quot;₩&quot;* #,##0.00_ ;_ &quot;₩&quot;* &quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-#,##0.00_ ;_ &quot;₩&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="196" formatCode="_ &quot;₩&quot;* #,##0_ ;_ &quot;₩&quot;* \-#,##0_ ;_ &quot;₩&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="197" formatCode="0.0%\ \ \ \ "/>
-    <numFmt numFmtId="198" formatCode="%#.00"/>
-    <numFmt numFmtId="199" formatCode="_ * #,##0.00_ ;_ * &quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="200" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="201" formatCode="0.0%\ \ \ "/>
-    <numFmt numFmtId="202" formatCode="#,##0."/>
-    <numFmt numFmtId="203" formatCode="&quot;US$&quot;#,##0.00_);[Red]&quot;₩&quot;\!\(&quot;US$&quot;#,##0.00&quot;₩&quot;\!\)"/>
-    <numFmt numFmtId="204" formatCode="&quot;₩&quot;#,##0.00;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-#,##0.00"/>
-    <numFmt numFmtId="205" formatCode="\$#,##0\ ;\(\$#,##0\)"/>
-    <numFmt numFmtId="206" formatCode="\$#.00"/>
-    <numFmt numFmtId="207" formatCode="\$#."/>
-    <numFmt numFmtId="208" formatCode="#,##0.0000;[Red]\-#,##0.0000"/>
-    <numFmt numFmtId="209" formatCode="_ * #,##0.00_ ;_ * &quot;₩&quot;\-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="210" formatCode="&quot;NO.&quot;#,##0"/>
-    <numFmt numFmtId="211" formatCode="[Blue]#,##0;[Red]\-#,##0;[Green]0"/>
-    <numFmt numFmtId="212" formatCode="#,##0\ &quot;DM&quot;;[Red]\-#,##0\ &quot;DM&quot;"/>
-    <numFmt numFmtId="213" formatCode="#,##0.00\ &quot;DM&quot;;[Red]\-#,##0.00\ &quot;DM&quot;"/>
-    <numFmt numFmtId="214" formatCode="#,##0;[Red]&quot;-&quot;#,##0"/>
-    <numFmt numFmtId="215" formatCode="#,##0;[Red]#,##0"/>
-    <numFmt numFmtId="216" formatCode="000.000"/>
-    <numFmt numFmtId="217" formatCode="#,##0;\-#,##0.00"/>
-    <numFmt numFmtId="218" formatCode="#\!\,##0;&quot;₩&quot;\!\-#\!\,##0\!.00"/>
-    <numFmt numFmtId="219" formatCode="0.000"/>
-    <numFmt numFmtId="220" formatCode="###&quot;m&quot;"/>
-    <numFmt numFmtId="221" formatCode="_ &quot;₩&quot;* #,##0.00_ ;_ &quot;₩&quot;* &quot;₩&quot;\-#,##0.00_ ;_ &quot;₩&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="222" formatCode="&quot;₩&quot;#,##0;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-#,##0"/>
-    <numFmt numFmtId="223" formatCode="#,##0.00000"/>
-    <numFmt numFmtId="224" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="225" formatCode="0.000000"/>
-    <numFmt numFmtId="226" formatCode="&quot;₩&quot;#,##0;&quot;₩&quot;\-#,##0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="66">
+    <numFmt numFmtId="42" formatCode="_-&quot;₩&quot;* #,##0_-;\-&quot;₩&quot;* #,##0_-;_-&quot;₩&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="#,##0.0"/>
+    <numFmt numFmtId="177" formatCode="#,##0.000"/>
+    <numFmt numFmtId="178" formatCode="#,##0.0____"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="0.0_);[Red]\(0.0\)"/>
+    <numFmt numFmtId="181" formatCode="#,##0;\(\-#,##0\)"/>
+    <numFmt numFmtId="182" formatCode="_-* #,##0.00_-;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="183" formatCode="_ &quot;₩&quot;* #,##0.00_ ;_ &quot;₩&quot;* &quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-#,##0.00_ ;_ &quot;₩&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="184" formatCode="#,##0_ "/>
+    <numFmt numFmtId="185" formatCode="_-* #,##0_-;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="186" formatCode="yyyy&quot;/&quot;m&quot;/&quot;d"/>
+    <numFmt numFmtId="187" formatCode="_ &quot;₩&quot;* #,##0.00_ ;_ &quot;₩&quot;* \-#,##0.00_ ;_ &quot;₩&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="188" formatCode="0.0%"/>
+    <numFmt numFmtId="189" formatCode="#"/>
+    <numFmt numFmtId="190" formatCode="_ * #,##0_ ;_ * &quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="191" formatCode="\(#,##0.0\)"/>
+    <numFmt numFmtId="192" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="193" formatCode="_ * #,##0_ ;_ * &quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="194" formatCode="yy&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-m&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-d&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\ h:mm"/>
+    <numFmt numFmtId="195" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="196" formatCode="_-* #,##0_-;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="197" formatCode="&quot;₩&quot;\!\$#\!\,##0_);[Red]&quot;₩&quot;\!\(&quot;₩&quot;\!\$#\!\,##0&quot;₩&quot;\!\)"/>
+    <numFmt numFmtId="198" formatCode="0\!.0000000000000000"/>
+    <numFmt numFmtId="199" formatCode="&quot;$&quot;#\!\,##0\!.00_);[Red]&quot;₩&quot;\!\(&quot;$&quot;#\!\,##0\!.00&quot;₩&quot;\!\)"/>
+    <numFmt numFmtId="200" formatCode="_-* #,##0.00_-;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="201" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="202" formatCode="&quot;₩&quot;#,##0.00;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-&quot;₩&quot;#,##0.00"/>
+    <numFmt numFmtId="203" formatCode="#.00"/>
+    <numFmt numFmtId="204" formatCode="#."/>
+    <numFmt numFmtId="205" formatCode="&quot;₩&quot;#,##0.00;&quot;₩&quot;\-#,##0.00"/>
+    <numFmt numFmtId="206" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="207" formatCode="_ &quot;₩&quot;* #,##0.00_ ;_ &quot;₩&quot;* &quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-#,##0.00_ ;_ &quot;₩&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="208" formatCode="_ &quot;₩&quot;* #,##0_ ;_ &quot;₩&quot;* \-#,##0_ ;_ &quot;₩&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="209" formatCode="0.0%\ \ \ \ "/>
+    <numFmt numFmtId="210" formatCode="%#.00"/>
+    <numFmt numFmtId="211" formatCode="_ * #,##0.00_ ;_ * &quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="212" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="213" formatCode="0.0%\ \ \ "/>
+    <numFmt numFmtId="214" formatCode="#,##0."/>
+    <numFmt numFmtId="215" formatCode="&quot;US$&quot;#,##0.00_);[Red]&quot;₩&quot;\!\(&quot;US$&quot;#,##0.00&quot;₩&quot;\!\)"/>
+    <numFmt numFmtId="216" formatCode="&quot;₩&quot;#,##0.00;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-#,##0.00"/>
+    <numFmt numFmtId="217" formatCode="\$#,##0\ ;\(\$#,##0\)"/>
+    <numFmt numFmtId="218" formatCode="\$#.00"/>
+    <numFmt numFmtId="219" formatCode="\$#."/>
+    <numFmt numFmtId="220" formatCode="#,##0.0000;[Red]\-#,##0.0000"/>
+    <numFmt numFmtId="221" formatCode="_ * #,##0.00_ ;_ * &quot;₩&quot;\-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="222" formatCode="&quot;NO.&quot;#,##0"/>
+    <numFmt numFmtId="223" formatCode="[Blue]#,##0;[Red]\-#,##0;[Green]0"/>
+    <numFmt numFmtId="224" formatCode="#,##0\ &quot;DM&quot;;[Red]\-#,##0\ &quot;DM&quot;"/>
+    <numFmt numFmtId="225" formatCode="#,##0.00\ &quot;DM&quot;;[Red]\-#,##0.00\ &quot;DM&quot;"/>
+    <numFmt numFmtId="226" formatCode="#,##0;[Red]&quot;-&quot;#,##0"/>
+    <numFmt numFmtId="227" formatCode="#,##0;[Red]#,##0"/>
+    <numFmt numFmtId="228" formatCode="000.000"/>
+    <numFmt numFmtId="229" formatCode="#,##0;\-#,##0.00"/>
+    <numFmt numFmtId="230" formatCode="#\!\,##0;&quot;₩&quot;\!\-#\!\,##0\!.00"/>
+    <numFmt numFmtId="231" formatCode="0.000"/>
+    <numFmt numFmtId="232" formatCode="###&quot;m&quot;"/>
+    <numFmt numFmtId="233" formatCode="_ &quot;₩&quot;* #,##0.00_ ;_ &quot;₩&quot;* &quot;₩&quot;\-#,##0.00_ ;_ &quot;₩&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="234" formatCode="&quot;₩&quot;#,##0;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;&quot;₩&quot;\-#,##0"/>
+    <numFmt numFmtId="235" formatCode="#,##0.00000"/>
+    <numFmt numFmtId="236" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="237" formatCode="0.000000"/>
+    <numFmt numFmtId="238" formatCode="&quot;₩&quot;#,##0;&quot;₩&quot;\-#,##0"/>
   </numFmts>
   <fonts count="97">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="바탕체"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="맑은 고딕"/>
+      <name val="돋움"/>
+      <family val="3"/>
       <charset val="129"/>
-      <family val="2"/>
-      <sz val="8"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="맑은 고딕"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="바탕체"/>
-      <charset val="129"/>
-      <family val="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="돋움"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <sz val="11"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
       <sz val="10"/>
-    </font>
-    <font>
       <name val="바탕체"/>
+      <family val="1"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <name val="바탕체"/>
       <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="굴림"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
       <sz val="10"/>
-    </font>
-    <font>
+      <color indexed="10"/>
       <name val="바탕체"/>
+      <family val="1"/>
       <charset val="129"/>
-      <family val="1"/>
-      <b val="1"/>
-      <sz val="22"/>
-    </font>
-    <font>
-      <name val="굴림"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="바탕체"/>
-      <charset val="129"/>
-      <family val="1"/>
-      <color indexed="10"/>
+    </font>
+    <font>
       <sz val="10"/>
-    </font>
-    <font>
       <name val="MS Sans Serif"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="굴림체"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="굴림체"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
       <sz val="10"/>
-    </font>
-    <font>
       <name val="굴림체"/>
+      <family val="3"/>
       <charset val="129"/>
-      <family val="3"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="굴림체"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <i val="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="굴림체"/>
-      <charset val="129"/>
-      <family val="3"/>
+    </font>
+    <font>
       <sz val="10"/>
-    </font>
-    <font>
       <name val="Helv"/>
       <family val="2"/>
-      <sz val="10"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <sz val="1"/>
+      <color indexed="8"/>
       <name val="Courier"/>
       <family val="3"/>
-      <color indexed="8"/>
-      <sz val="1"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <b/>
+      <sz val="1"/>
+      <color indexed="8"/>
       <name val="Courier"/>
       <family val="3"/>
-      <b val="1"/>
-      <color indexed="8"/>
-      <sz val="1"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="¹UAAA¼"/>
+      <family val="1"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="ⓒoUAAA¨u"/>
       <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="￥i￠￢￠?o"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
       <sz val="12"/>
-    </font>
-    <font>
-      <name val="ⓒoUAAA¨u"/>
+      <name val="¹ÙÅÁÃ¼"/>
+      <family val="3"/>
       <charset val="129"/>
-      <family val="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="￥i￠￢￠?o"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="µ¸¿ò"/>
+      <family val="3"/>
       <charset val="129"/>
-      <family val="3"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="¹ÙÅÁÃ¼"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="µ¸¿ò"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <sz val="11"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="9"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="System"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="±¼¸²A¼"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
       <sz val="12"/>
-    </font>
-    <font>
-      <name val="±¼¸²A¼"/>
+      <name val="μ¸¿oA¼"/>
+      <family val="3"/>
       <charset val="129"/>
-      <family val="3"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="μ¸¿oA¼"/>
-      <charset val="129"/>
-      <family val="3"/>
+    </font>
+    <font>
       <sz val="12"/>
-    </font>
-    <font>
       <name val="¹UAAA¼"/>
       <family val="1"/>
+    </font>
+    <font>
       <sz val="12"/>
-    </font>
-    <font>
       <name val="¹ÙÅÁÃ¼"/>
       <family val="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="μ¸¿o"/>
+      <family val="3"/>
       <charset val="129"/>
-      <family val="3"/>
-      <sz val="11"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
       <name val="Helv"/>
       <family val="2"/>
-      <b val="1"/>
+    </font>
+    <font>
       <sz val="10"/>
-    </font>
-    <font>
+      <color indexed="9"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="9"/>
+    </font>
+    <font>
       <sz val="10"/>
-    </font>
-    <font>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <sz val="10"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="돋움체"/>
+      <family val="3"/>
       <charset val="129"/>
-      <family val="3"/>
-      <sz val="11"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <i/>
+      <sz val="1"/>
+      <color indexed="8"/>
       <name val="Courier"/>
       <family val="3"/>
-      <i val="1"/>
-      <color indexed="8"/>
-      <sz val="1"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="8"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <i val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <name val="Helv"/>
       <family val="2"/>
-      <b val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
-    </font>
-    <font>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <sz val="18"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="12"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
       <color indexed="12"/>
-      <sz val="10"/>
-    </font>
-    <font>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <color indexed="12"/>
-      <sz val="8"/>
-      <u val="single"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Courier New"/>
       <family val="3"/>
-      <sz val="12"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Helv"/>
       <family val="2"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="바탕체"/>
+      <family val="1"/>
       <charset val="129"/>
-      <family val="1"/>
-      <color indexed="8"/>
-      <sz val="10"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <sz val="7"/>
       <name val="Small Fonts"/>
       <family val="2"/>
-      <sz val="7"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Helv"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
-    </font>
-    <font>
       <name val="Book Antiqua"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <sz val="24"/>
       <name val="Courier New"/>
       <family val="3"/>
-      <sz val="24"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-      <b val="1"/>
-      <sz val="8"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <i val="1"/>
-      <sz val="14"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="¸iA¶"/>
+      <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="13"/>
+      <name val="굴림체"/>
       <family val="3"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="굴림체"/>
       <charset val="129"/>
-      <family val="3"/>
-      <b val="1"/>
-      <sz val="13"/>
-      <u val="single"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <sz val="24"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="1"/>
-      <sz val="14"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="12"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="12"/>
-      <sz val="8"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="24"/>
       <name val="바탕체"/>
+      <family val="1"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="24"/>
+      <name val="바탕체"/>
       <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color indexed="24"/>
-      <sz val="12"/>
-    </font>
-    <font>
       <name val="바탕체"/>
+      <family val="1"/>
       <charset val="129"/>
-      <family val="1"/>
-      <b val="1"/>
-      <color indexed="24"/>
-      <sz val="18"/>
-    </font>
-    <font>
-      <name val="바탕체"/>
-      <charset val="129"/>
-      <family val="1"/>
-      <b val="1"/>
-      <color indexed="24"/>
-      <sz val="15"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="36"/>
       <name val="Arial"/>
       <family val="2"/>
-      <color indexed="36"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="뼥?ⓒ"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="굴림체"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="뼻뮝"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <u val="single"/>
-    </font>
-    <font>
-      <name val="뼥?ⓒ"/>
+      <name val="돋움체"/>
+      <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="바탕체"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="바탕체"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="바탕체"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="궁서체"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <name val="궁서체"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="16"/>
+      <name val="굴림체"/>
       <family val="3"/>
-      <sz val="14"/>
-    </font>
-    <font>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="명조"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="한양신명조"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="바탕체"/>
+      <family val="1"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="돋움체"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <name val="굴림체"/>
+      <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="돋움"/>
       <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="¹UAAA¼"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
       <sz val="11"/>
-    </font>
-    <font>
-      <name val="뼻뮝"/>
+      <color indexed="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
-      <family val="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="돋움체"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="56"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
       <sz val="10"/>
-    </font>
-    <font>
-      <name val="바탕체"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
-      <family val="1"/>
-      <b val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
       <sz val="10"/>
-    </font>
-    <font>
-      <name val="바탕체"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
-      <family val="1"/>
-      <b val="1"/>
-      <sz val="18"/>
-    </font>
-    <font>
-      <name val="바탕체"/>
-      <charset val="129"/>
-      <family val="1"/>
-      <b val="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="궁서체"/>
-      <charset val="129"/>
-      <family val="1"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="궁서체"/>
-      <charset val="129"/>
-      <family val="1"/>
-      <sz val="18"/>
-    </font>
-    <font>
-      <name val="굴림체"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <b val="1"/>
-      <color indexed="16"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="돋움"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="명조"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="한양신명조"/>
-      <charset val="129"/>
-      <family val="1"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="바탕체"/>
-      <charset val="129"/>
-      <family val="1"/>
-      <color indexed="8"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="돋움체"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <color indexed="10"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="굴림체"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <b val="1"/>
-      <sz val="18"/>
-    </font>
-    <font>
-      <name val="돋움"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <color indexed="12"/>
-      <sz val="11"/>
-      <u val="single"/>
-    </font>
-    <font>
-      <name val="¹UAAA¼"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <sz val="12"/>
-    </font>
-    <font>
-      <name val="맑은 고딕"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <color indexed="8"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="맑은 고딕"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <color indexed="9"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="맑은 고딕"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <color indexed="10"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="맑은 고딕"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <b val="1"/>
-      <color indexed="52"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="맑은 고딕"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <color indexed="20"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="맑은 고딕"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <color indexed="60"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="맑은 고딕"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <i val="1"/>
-      <color indexed="23"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="맑은 고딕"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <b val="1"/>
-      <color indexed="9"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="맑은 고딕"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <color indexed="52"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="맑은 고딕"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <b val="1"/>
-      <color indexed="8"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="맑은 고딕"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <color indexed="62"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="맑은 고딕"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <b val="1"/>
-      <color indexed="56"/>
-      <sz val="18"/>
-    </font>
-    <font>
-      <name val="맑은 고딕"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <b val="1"/>
-      <color indexed="56"/>
-      <sz val="15"/>
-    </font>
-    <font>
-      <name val="맑은 고딕"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <b val="1"/>
-      <color indexed="56"/>
-      <sz val="13"/>
-    </font>
-    <font>
-      <name val="맑은 고딕"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <b val="1"/>
-      <color indexed="56"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="맑은 고딕"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <color indexed="17"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="맑은 고딕"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <b val="1"/>
-      <color indexed="63"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <name val="맑은 고딕"/>
-      <charset val="129"/>
-      <family val="3"/>
-      <sz val="10"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <name val="맑은 고딕"/>
-      <charset val="129"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="10"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="31">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -1219,1618 +1299,1618 @@
     </border>
   </borders>
   <cellStyleXfs count="2689">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="3" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="3" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="3" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="3" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="3" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="3" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="3" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="3" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="3" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="184" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="3" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="37" fontId="9" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="4" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="4" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="189" fontId="9" fillId="0" borderId="0">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="3" fillId="0" borderId="0">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="9" fillId="0" borderId="0">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="9" fillId="0" borderId="0">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="3" fillId="0" borderId="0">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="9" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="9" fillId="0" borderId="0">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="3" fillId="0" borderId="0">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="9" fillId="0" borderId="0">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="9" fillId="0" borderId="0">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="3" fillId="0" borderId="0">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="3" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="9" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="9" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="3" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="9" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="9" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="9" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="9" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="191" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="3" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="3" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="195" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="195" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="3" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="196" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="196" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="3" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="9" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="3" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="195" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="195" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="3" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="196" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="196" fontId="4" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="9" fillId="0" borderId="4">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="197" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="185" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="185" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="185" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="185" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="186" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="187" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="186" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="187" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="185" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="188" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="198" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="199" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="198" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="199" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="197" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="200" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="200" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -2839,7 +2919,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="189" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="201" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -4180,7 +4260,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="190" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
@@ -4410,10 +4490,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="190" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="190" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -4421,24 +4501,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="190" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="190" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="190" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="190" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="190" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="190" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="190" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="190" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="190" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="190" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="190" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="190" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="190" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="190" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -4452,158 +4532,158 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="189" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="190" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="201" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="202" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyProtection="1">
-      <protection locked="0" hidden="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="191" fontId="15" fillId="0" borderId="0" applyProtection="1">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyProtection="1">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyProtection="1">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="192" fontId="15" fillId="0" borderId="0" applyProtection="1">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="192" fontId="15" fillId="0" borderId="0" applyProtection="1">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="192" fontId="15" fillId="0" borderId="0" applyProtection="1">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="192" fontId="15" fillId="0" borderId="0" applyProtection="1">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="192" fontId="15" fillId="0" borderId="0" applyProtection="1">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="192" fontId="15" fillId="0" borderId="0" applyProtection="1">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="192" fontId="15" fillId="0" borderId="0" applyProtection="1">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="192" fontId="15" fillId="0" borderId="0" applyProtection="1">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="192" fontId="15" fillId="0" borderId="0" applyProtection="1">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="192" fontId="15" fillId="0" borderId="0" applyProtection="1">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="203" fontId="15" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="204" fontId="15" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="204" fontId="15" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="204" fontId="15" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="204" fontId="15" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="204" fontId="15" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="204" fontId="15" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="204" fontId="15" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="204" fontId="15" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="204" fontId="15" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="204" fontId="15" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="193" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="205" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyProtection="1">
-      <protection locked="0" hidden="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
-    <xf numFmtId="194" fontId="11" fillId="3" borderId="5" applyAlignment="1">
+    <xf numFmtId="206" fontId="11" fillId="3" borderId="5">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyProtection="1">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyProtection="1">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyProtection="1">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyProtection="1">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyProtection="1">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyProtection="1">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyProtection="1">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyProtection="1">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyProtection="1">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="195" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="207" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="196" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="208" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="196" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="208" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="197" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="209" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="175" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="187" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="175" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="187" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="198" fontId="15" fillId="0" borderId="0" applyProtection="1">
-      <protection locked="0" hidden="0"/>
+    <xf numFmtId="210" fontId="15" fillId="0" borderId="0">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="199" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="211" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="200" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="212" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="200" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="212" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
-    <xf numFmtId="201" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="213" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="179" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" applyProtection="1">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="202" fontId="15" fillId="0" borderId="0" applyProtection="1">
-      <protection locked="0" hidden="0"/>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="214" fontId="15" fillId="0" borderId="0">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -4654,14 +4734,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyProtection="1">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="7" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="4" borderId="7">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" applyProtection="1">
-      <protection locked="0" hidden="0"/>
+    <xf numFmtId="4" fontId="15" fillId="0" borderId="0">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
@@ -4669,80 +4749,80 @@
     <xf numFmtId="3" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyProtection="1">
-      <protection locked="0" hidden="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="203" fontId="3" fillId="0" borderId="1"/>
-    <xf numFmtId="204" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="205" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="215" fontId="3" fillId="0" borderId="1"/>
+    <xf numFmtId="216" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="217" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0"/>
-    <xf numFmtId="37" fontId="6" fillId="0" borderId="1" applyAlignment="1">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="1">
       <alignment horizontal="center" vertical="distributed"/>
     </xf>
     <xf numFmtId="38" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="40" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="206" fontId="15" fillId="0" borderId="0" applyProtection="1">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="207" fontId="15" fillId="0" borderId="0" applyProtection="1">
-      <protection locked="0" hidden="0"/>
+    <xf numFmtId="218" fontId="15" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="219" fontId="15" fillId="0" borderId="0">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyProtection="1">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyProtection="1">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyProtection="1">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyProtection="1">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyProtection="1">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyProtection="1">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyProtection="1">
-      <protection locked="0" hidden="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="38" fontId="35" fillId="5" borderId="0"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="8" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="8">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="9">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="208" fontId="11" fillId="0" borderId="0" applyProtection="1">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="208" fontId="11" fillId="0" borderId="0" applyProtection="1">
-      <protection locked="0" hidden="0"/>
+    <xf numFmtId="220" fontId="11" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="220" fontId="11" fillId="0" borderId="0">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="10"/>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0">
       <alignment vertical="top"/>
-      <protection locked="0" hidden="0"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="10" fontId="35" fillId="5" borderId="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0"/>
@@ -4750,18 +4830,18 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="11"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="209" fontId="44" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="221" fontId="44" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="37" fontId="45" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="210" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="222" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="211" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="223" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0"/>
@@ -4774,22 +4854,22 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyProtection="1">
-      <protection locked="0" hidden="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="10" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyProtection="1">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="6" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="0" borderId="0"/>
@@ -4797,13 +4877,13 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="6" borderId="9" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="6" borderId="9">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
@@ -4811,8 +4891,8 @@
     <xf numFmtId="37" fontId="35" fillId="7" borderId="0"/>
     <xf numFmtId="37" fontId="35" fillId="0" borderId="0"/>
     <xf numFmtId="3" fontId="55" fillId="0" borderId="10"/>
-    <xf numFmtId="212" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="213" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="224" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="225" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
     <xf numFmtId="2" fontId="56" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="0"/>
@@ -4829,21 +4909,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0"/>
-    <xf numFmtId="3" fontId="10" fillId="0" borderId="3" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="3">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyProtection="1">
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="0">
       <alignment vertical="top"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="40" fontId="60" fillId="0" borderId="0"/>
@@ -4854,10 +4934,10 @@
     <xf numFmtId="0" fontId="60" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="61" fillId="5" borderId="0" applyAlignment="1">
+    <xf numFmtId="9" fontId="61" fillId="5" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="10" fontId="61" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="10" fontId="61" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="62" fillId="0" borderId="0"/>
@@ -4872,24 +4952,24 @@
     <xf numFmtId="3" fontId="63" fillId="0" borderId="12"/>
     <xf numFmtId="3" fontId="63" fillId="0" borderId="13"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="14" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="14">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="67" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="67" fillId="0" borderId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="68" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="68" fillId="0" borderId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="214" fontId="69" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="226" fontId="69" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="215" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="227" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="70" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -4951,264 +5031,264 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="15"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="216" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="217" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="217" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="217" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="218" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="217" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="218" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="218" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="217" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="218" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="217" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="217" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="217" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="217" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="218" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="218" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="218" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="228" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="229" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="229" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="229" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="230" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="229" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="230" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="230" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="229" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="230" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="229" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="229" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="229" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="229" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="230" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="230" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="230" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="220" fontId="44" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="232" fontId="44" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="220" fontId="44" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="232" fontId="44" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="220" fontId="44" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="232" fontId="44" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="221" fontId="44" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="233" fontId="44" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="220" fontId="44" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="232" fontId="44" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="220" fontId="44" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="232" fontId="44" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="221" fontId="44" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="233" fontId="44" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="220" fontId="44" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="232" fontId="44" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="220" fontId="44" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="232" fontId="44" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="221" fontId="44" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="233" fontId="44" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="220" fontId="44" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="232" fontId="44" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="220" fontId="44" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="232" fontId="44" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="220" fontId="44" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="232" fontId="44" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="221" fontId="44" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="233" fontId="44" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="221" fontId="44" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="233" fontId="44" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="220" fontId="44" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="232" fontId="44" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="220" fontId="44" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="232" fontId="44" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="221" fontId="44" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="233" fontId="44" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="220" fontId="44" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="232" fontId="44" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="220" fontId="44" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="232" fontId="44" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="221" fontId="44" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="233" fontId="44" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="222" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="234" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="222" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="234" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="222" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="234" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="223" fontId="44" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="235" fontId="44" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="221" fontId="44" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="233" fontId="44" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="201" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="220" fontId="44" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="232" fontId="44" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="220" fontId="44" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="232" fontId="44" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="221" fontId="44" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="233" fontId="44" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="220" fontId="44" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="232" fontId="44" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="220" fontId="44" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="232" fontId="44" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="221" fontId="44" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="233" fontId="44" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="220" fontId="44" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="232" fontId="44" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="220" fontId="44" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="232" fontId="44" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="221" fontId="44" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="233" fontId="44" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="219" fontId="73" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="231" fontId="73" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="223" fontId="44" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="235" fontId="44" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="221" fontId="44" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="233" fontId="44" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="201" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="222" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="234" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="222" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="234" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="222" fontId="3" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="234" fontId="3" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="56" fillId="0" borderId="0"/>
@@ -5216,11 +5296,11 @@
     <xf numFmtId="0" fontId="74" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="200" fontId="3" fillId="0" borderId="1" applyAlignment="1">
+    <xf numFmtId="212" fontId="3" fillId="0" borderId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="224" fontId="61" fillId="5" borderId="0" applyAlignment="1">
+    <xf numFmtId="236" fontId="61" fillId="5" borderId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
@@ -5229,7 +5309,7 @@
     <xf numFmtId="10" fontId="56" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -5238,68 +5318,68 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="6"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="225" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="226" fontId="56" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="78" fillId="9" borderId="0" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="237" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="238" fontId="56" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="78" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="78" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="78" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="78" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="13" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="78" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="14" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="78" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="15" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="78" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="78" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="17" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="78" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="12" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="78" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="15" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="78" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="18" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="78" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="19" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="79" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="16" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="79" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="17" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="79" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="79" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="79" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="22" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="79" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0"/>
@@ -5309,112 +5389,106 @@
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="79" fillId="23" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="79" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="24" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="79" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="25" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="79" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="20" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="79" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="21" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="79" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="26" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="79" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="27" borderId="17" applyAlignment="1">
+    <xf numFmtId="0" fontId="81" fillId="27" borderId="17">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="10" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="82" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="18" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="18">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="83" fillId="29" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="83" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="85" fillId="30" borderId="19" applyAlignment="1">
+    <xf numFmtId="0" fontId="85" fillId="30" borderId="19">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="20" applyAlignment="1">
+    <xf numFmtId="0" fontId="86" fillId="0" borderId="20">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="21" applyAlignment="1">
+    <xf numFmtId="0" fontId="87" fillId="0" borderId="21">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="88" fillId="14" borderId="17" applyAlignment="1">
+    <xf numFmtId="0" fontId="88" fillId="14" borderId="17">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="89" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="22" applyAlignment="1">
+    <xf numFmtId="0" fontId="90" fillId="0" borderId="22">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="91" fillId="0" borderId="23" applyAlignment="1">
+    <xf numFmtId="0" fontId="91" fillId="0" borderId="23">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="24" applyAlignment="1">
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="24">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="92" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="11" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="93" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="27" borderId="25" applyAlignment="1">
+    <xf numFmtId="0" fontId="94" fillId="27" borderId="25">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="0">
       <alignment vertical="top"/>
-      <protection locked="0" hidden="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="0" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="95" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2689">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1"/>
-    <cellStyle name="표준 3" xfId="2"/>
-    <cellStyle name="표준 4" xfId="3"/>
-    <cellStyle name="표준 5" xfId="4"/>
     <cellStyle name="_x0014_" xfId="5"/>
     <cellStyle name="          _x000d__x000a_386grabber=vga.3gr_x000d__x000a_" xfId="6"/>
     <cellStyle name="&quot;큰제목&quot;" xfId="7"/>
@@ -7617,7 +7691,25 @@
     <cellStyle name="19990216" xfId="2204"/>
     <cellStyle name="¹eºÐA²_±aA¸" xfId="2205"/>
     <cellStyle name="2)" xfId="2206"/>
+    <cellStyle name="20% - 강조색1 2" xfId="2636"/>
+    <cellStyle name="20% - 강조색2 2" xfId="2637"/>
+    <cellStyle name="20% - 강조색3 2" xfId="2638"/>
+    <cellStyle name="20% - 강조색4 2" xfId="2639"/>
+    <cellStyle name="20% - 강조색5 2" xfId="2640"/>
+    <cellStyle name="20% - 강조색6 2" xfId="2641"/>
     <cellStyle name="³¯â¥" xfId="2207"/>
+    <cellStyle name="40% - 강조색1 2" xfId="2642"/>
+    <cellStyle name="40% - 강조색2 2" xfId="2643"/>
+    <cellStyle name="40% - 강조색3 2" xfId="2644"/>
+    <cellStyle name="40% - 강조색4 2" xfId="2645"/>
+    <cellStyle name="40% - 강조색5 2" xfId="2646"/>
+    <cellStyle name="40% - 강조색6 2" xfId="2647"/>
+    <cellStyle name="60% - 강조색1 2" xfId="2648"/>
+    <cellStyle name="60% - 강조색2 2" xfId="2649"/>
+    <cellStyle name="60% - 강조색3 2" xfId="2650"/>
+    <cellStyle name="60% - 강조색4 2" xfId="2651"/>
+    <cellStyle name="60% - 강조색5 2" xfId="2652"/>
+    <cellStyle name="60% - 강조색6 2" xfId="2653"/>
     <cellStyle name="_x0014_7." xfId="2208"/>
     <cellStyle name="A¨­￠￢￠O [0]_INQUIRY ￠?￥i¨u¡AAⓒ￢Aⓒª " xfId="2209"/>
     <cellStyle name="A¨­￠￢￠O_INQUIRY ￠?￥i¨u¡AAⓒ￢Aⓒª " xfId="2210"/>
@@ -7685,15 +7777,21 @@
     <cellStyle name="Ç¥ÁØ_Á¾ÇÕ½Å¼³ _광케이블피스표" xfId="2272"/>
     <cellStyle name="C￥AØ_A¾CO½A¼³ _기지국집계" xfId="2273"/>
     <cellStyle name="Ç¥ÁØ_Á¾ÇÕ½Å¼³ _기지국집계" xfId="2274"/>
+    <cellStyle name="C￥AØ_A¾CO½A¼³ _기지국집계 2" xfId="2654"/>
     <cellStyle name="Ç¥ÁØ_Á¾ÇÕ½Å¼³ _설계(sample-파워콤-수원-용인국사)" xfId="2275"/>
+    <cellStyle name="C￥AØ_A¾CO½A¼³ _설계(sample-파워콤-수원-용인국사) 2" xfId="2655"/>
     <cellStyle name="Ç¥ÁØ_Á¾ÇÕ½Å¼³ _설계(sample-파워콤-수원-용인국사)_ADM16광단국설계" xfId="2276"/>
+    <cellStyle name="C￥AØ_A¾CO½A¼³ _설계(sample-파워콤-수원-용인국사)_ADM16광단국설계 2" xfId="2656"/>
     <cellStyle name="Ç¥ÁØ_Á¾ÇÕÃ¶°ÅºÐ " xfId="2277"/>
     <cellStyle name="C￥AØ_A¾COA¶°AºÐ _광케이블피스표" xfId="2278"/>
     <cellStyle name="Ç¥ÁØ_Á¾ÇÕÃ¶°ÅºÐ _광케이블피스표" xfId="2279"/>
     <cellStyle name="C￥AØ_A¾COA¶°AºÐ _기지국집계" xfId="2280"/>
     <cellStyle name="Ç¥ÁØ_Á¾ÇÕÃ¶°ÅºÐ _기지국집계" xfId="2281"/>
+    <cellStyle name="C￥AØ_A¾COA¶°AºÐ _기지국집계 2" xfId="2657"/>
     <cellStyle name="Ç¥ÁØ_Á¾ÇÕÃ¶°ÅºÐ _설계(sample-파워콤-수원-용인국사)" xfId="2282"/>
+    <cellStyle name="C￥AØ_A¾COA¶°AºÐ _설계(sample-파워콤-수원-용인국사) 2" xfId="2658"/>
     <cellStyle name="Ç¥ÁØ_Á¾ÇÕÃ¶°ÅºÐ _설계(sample-파워콤-수원-용인국사)_ADM16광단국설계" xfId="2283"/>
+    <cellStyle name="C￥AØ_A¾COA¶°AºÐ _설계(sample-파워콤-수원-용인국사)_ADM16광단국설계 2" xfId="2659"/>
     <cellStyle name="Ç¥ÁØ_Àü·Â¼ÕÀÍºÐ¼®" xfId="2284"/>
     <cellStyle name="C￥AØ_Au·A¼OAIºÐ¼R" xfId="2285"/>
     <cellStyle name="Ç¥ÁØ_Áý°èÇ¥(2¿ù) " xfId="2286"/>
@@ -7701,6 +7799,7 @@
     <cellStyle name="Ç¥ÁØ_laroux_1_Á¾ÇÕ½Å¼³ " xfId="2288"/>
     <cellStyle name="C￥AØ_laroux_1_A¾COA¶°AºÐ " xfId="2289"/>
     <cellStyle name="Ç¥ÁØ_laroux_1_Á¾ÇÕÃ¶°ÅºÐ " xfId="2290"/>
+    <cellStyle name="C￥AØ_laroux_1_A¾COA¶°AºÐ  2" xfId="2660"/>
     <cellStyle name="Ç¥ÁØ_laroux_Á¾ÇÕ½Å¼³ " xfId="2291"/>
     <cellStyle name="C￥AØ_laroux_A¾COA¶°AºÐ " xfId="2292"/>
     <cellStyle name="Ç¥ÁØ_laroux_Á¾ÇÕÃ¶°ÅºÐ " xfId="2293"/>
@@ -7808,6 +7907,14 @@
     <cellStyle name="W?rung [0]_Ausdruck RUND (D)" xfId="2395"/>
     <cellStyle name="W?rung_Ausdruck RUND (D)" xfId="2396"/>
     <cellStyle name="Ͱ" xfId="2397"/>
+    <cellStyle name="강조색1 2" xfId="2661"/>
+    <cellStyle name="강조색2 2" xfId="2662"/>
+    <cellStyle name="강조색3 2" xfId="2663"/>
+    <cellStyle name="강조색4 2" xfId="2664"/>
+    <cellStyle name="강조색5 2" xfId="2665"/>
+    <cellStyle name="강조색6 2" xfId="2666"/>
+    <cellStyle name="경고문 2" xfId="2667"/>
+    <cellStyle name="계산 2" xfId="2668"/>
     <cellStyle name="고정소숫점" xfId="2398"/>
     <cellStyle name="고정출력1" xfId="2399"/>
     <cellStyle name="고정출력2" xfId="2400"/>
@@ -7822,6 +7929,7 @@
     <cellStyle name="咬訌裝?INCOM8" xfId="2409"/>
     <cellStyle name="咬訌裝?INCOM9" xfId="2410"/>
     <cellStyle name="咬訌裝?PRIB11" xfId="2411"/>
+    <cellStyle name="나쁨 2" xfId="2669"/>
     <cellStyle name="날짜" xfId="2412"/>
     <cellStyle name="내역서" xfId="2413"/>
     <cellStyle name="닠러" xfId="2414"/>
@@ -7833,12 +7941,14 @@
     <cellStyle name="똿떓죶Ø괻_PRODUCT DETAIL Q1" xfId="2420"/>
     <cellStyle name="똿뗦먛귟 [0.00]_laroux" xfId="2421"/>
     <cellStyle name="똿뗦먛귟_laroux" xfId="2422"/>
+    <cellStyle name="메모 2" xfId="2670"/>
     <cellStyle name="묮뎋 [0.00]_PRODUCT DETAIL Q1" xfId="2423"/>
     <cellStyle name="묮뎋_PRODUCT DETAIL Q1" xfId="2424"/>
     <cellStyle name="믅됞 [0.00]_laroux" xfId="2425"/>
     <cellStyle name="믅됞_laroux" xfId="2426"/>
     <cellStyle name="백분율 [0]" xfId="2427"/>
     <cellStyle name="백분율 [2]" xfId="2428"/>
+    <cellStyle name="보통 2" xfId="2671"/>
     <cellStyle name="뷭?" xfId="2429"/>
     <cellStyle name="뷭? 2" xfId="2430"/>
     <cellStyle name="뷭? 3" xfId="2431"/>
@@ -7853,12 +7963,16 @@
     <cellStyle name="설계서-소제목" xfId="2440"/>
     <cellStyle name="설계서-타이틀" xfId="2441"/>
     <cellStyle name="설계서-항목" xfId="2442"/>
+    <cellStyle name="설명 텍스트 2" xfId="2672"/>
+    <cellStyle name="셀 확인 2" xfId="2673"/>
     <cellStyle name="수당" xfId="2443"/>
     <cellStyle name="수당2" xfId="2444"/>
     <cellStyle name="숫자(R)" xfId="2445"/>
+    <cellStyle name="쉼표 [0] 10" xfId="2675"/>
     <cellStyle name="쉼표 [0] 2" xfId="2446"/>
     <cellStyle name="쉼표 [0] 3" xfId="2447"/>
     <cellStyle name="쉼표 [0] 4" xfId="2448"/>
+    <cellStyle name="쉼표 [0] 5" xfId="2674"/>
     <cellStyle name="스타일 1" xfId="2449"/>
     <cellStyle name="스타일 10" xfId="2450"/>
     <cellStyle name="스타일 11" xfId="2451"/>
@@ -7920,7 +8034,9 @@
     <cellStyle name="스타일 8" xfId="2507"/>
     <cellStyle name="스타일 9" xfId="2508"/>
     <cellStyle name="안건회계법인" xfId="2509"/>
+    <cellStyle name="연결된 셀 2" xfId="2676"/>
     <cellStyle name="영호" xfId="2510"/>
+    <cellStyle name="요약 2" xfId="2677"/>
     <cellStyle name="원" xfId="2511"/>
     <cellStyle name="원_0009김포공항LED교체공사(광일)" xfId="2512"/>
     <cellStyle name="원_0011KIST소각설비제작설치" xfId="2513"/>
@@ -8018,11 +8134,19 @@
     <cellStyle name="일_회선설계서 (2)_신서산자통신고" xfId="2605"/>
     <cellStyle name="일_회선설계서 (2)_신시흥관련광단국PITR" xfId="2606"/>
     <cellStyle name="일_회선설계서 (2)_울주지통(부산)" xfId="2607"/>
+    <cellStyle name="입력 2" xfId="2678"/>
     <cellStyle name="자리수" xfId="2608"/>
     <cellStyle name="자리수0" xfId="2609"/>
     <cellStyle name="적색" xfId="2610"/>
     <cellStyle name="점선" xfId="2611"/>
+    <cellStyle name="제목 1 2" xfId="2680"/>
+    <cellStyle name="제목 2 2" xfId="2681"/>
+    <cellStyle name="제목 3 2" xfId="2682"/>
+    <cellStyle name="제목 4 2" xfId="2683"/>
+    <cellStyle name="제목 5" xfId="2679"/>
+    <cellStyle name="좋음 2" xfId="2684"/>
     <cellStyle name="지정되지 않음" xfId="2612"/>
+    <cellStyle name="출력 2" xfId="2685"/>
     <cellStyle name="콤마 []" xfId="2613"/>
     <cellStyle name="콤마 [0]" xfId="2614"/>
     <cellStyle name="콤마 [2]" xfId="2615"/>
@@ -8030,145 +8154,38 @@
     <cellStyle name="콤마_  종  합  " xfId="2617"/>
     <cellStyle name="콤마판지역별판매현황_순매출현황" xfId="2618"/>
     <cellStyle name="퍼센트" xfId="2619"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="표준 10" xfId="2633"/>
+    <cellStyle name="표준 2" xfId="1"/>
+    <cellStyle name="표준 2 2" xfId="2621"/>
+    <cellStyle name="표준 2 2 2" xfId="2688"/>
     <cellStyle name="표준 2 3" xfId="2620"/>
-    <cellStyle name="표준 2 2" xfId="2621"/>
+    <cellStyle name="표준 2 4" xfId="2687"/>
     <cellStyle name="표준 2_기초공사" xfId="2622"/>
     <cellStyle name="표준 26" xfId="2623"/>
+    <cellStyle name="표준 3" xfId="2"/>
     <cellStyle name="표준 3 2" xfId="2624"/>
+    <cellStyle name="표준 4" xfId="3"/>
+    <cellStyle name="표준 5" xfId="4"/>
     <cellStyle name="표준 6" xfId="2625"/>
+    <cellStyle name="표준 7" xfId="2634"/>
+    <cellStyle name="표준 8" xfId="2632"/>
+    <cellStyle name="표준 9" xfId="2635"/>
     <cellStyle name="標準_Akia(F）-8" xfId="2626"/>
+    <cellStyle name="하이퍼링크 2" xfId="2686"/>
     <cellStyle name="합산" xfId="2627"/>
     <cellStyle name="垓" xfId="2628"/>
     <cellStyle name="호표" xfId="2629"/>
     <cellStyle name="화폐기호" xfId="2630"/>
     <cellStyle name="화폐기호0" xfId="2631"/>
-    <cellStyle name="표준 8" xfId="2632"/>
-    <cellStyle name="표준 10" xfId="2633"/>
-    <cellStyle name="표준 7" xfId="2634"/>
-    <cellStyle name="표준 9" xfId="2635"/>
-    <cellStyle name="20% - 강조색1 2" xfId="2636"/>
-    <cellStyle name="20% - 강조색2 2" xfId="2637"/>
-    <cellStyle name="20% - 강조색3 2" xfId="2638"/>
-    <cellStyle name="20% - 강조색4 2" xfId="2639"/>
-    <cellStyle name="20% - 강조색5 2" xfId="2640"/>
-    <cellStyle name="20% - 강조색6 2" xfId="2641"/>
-    <cellStyle name="40% - 강조색1 2" xfId="2642"/>
-    <cellStyle name="40% - 강조색2 2" xfId="2643"/>
-    <cellStyle name="40% - 강조색3 2" xfId="2644"/>
-    <cellStyle name="40% - 강조색4 2" xfId="2645"/>
-    <cellStyle name="40% - 강조색5 2" xfId="2646"/>
-    <cellStyle name="40% - 강조색6 2" xfId="2647"/>
-    <cellStyle name="60% - 강조색1 2" xfId="2648"/>
-    <cellStyle name="60% - 강조색2 2" xfId="2649"/>
-    <cellStyle name="60% - 강조색3 2" xfId="2650"/>
-    <cellStyle name="60% - 강조색4 2" xfId="2651"/>
-    <cellStyle name="60% - 강조색5 2" xfId="2652"/>
-    <cellStyle name="60% - 강조색6 2" xfId="2653"/>
-    <cellStyle name="C￥AØ_A¾CO½A¼³ _기지국집계 2" xfId="2654"/>
-    <cellStyle name="C￥AØ_A¾CO½A¼³ _설계(sample-파워콤-수원-용인국사) 2" xfId="2655"/>
-    <cellStyle name="C￥AØ_A¾CO½A¼³ _설계(sample-파워콤-수원-용인국사)_ADM16광단국설계 2" xfId="2656"/>
-    <cellStyle name="C￥AØ_A¾COA¶°AºÐ _기지국집계 2" xfId="2657"/>
-    <cellStyle name="C￥AØ_A¾COA¶°AºÐ _설계(sample-파워콤-수원-용인국사) 2" xfId="2658"/>
-    <cellStyle name="C￥AØ_A¾COA¶°AºÐ _설계(sample-파워콤-수원-용인국사)_ADM16광단국설계 2" xfId="2659"/>
-    <cellStyle name="C￥AØ_laroux_1_A¾COA¶°AºÐ  2" xfId="2660"/>
-    <cellStyle name="강조색1 2" xfId="2661"/>
-    <cellStyle name="강조색2 2" xfId="2662"/>
-    <cellStyle name="강조색3 2" xfId="2663"/>
-    <cellStyle name="강조색4 2" xfId="2664"/>
-    <cellStyle name="강조색5 2" xfId="2665"/>
-    <cellStyle name="강조색6 2" xfId="2666"/>
-    <cellStyle name="경고문 2" xfId="2667"/>
-    <cellStyle name="계산 2" xfId="2668"/>
-    <cellStyle name="나쁨 2" xfId="2669"/>
-    <cellStyle name="메모 2" xfId="2670"/>
-    <cellStyle name="보통 2" xfId="2671"/>
-    <cellStyle name="설명 텍스트 2" xfId="2672"/>
-    <cellStyle name="셀 확인 2" xfId="2673"/>
-    <cellStyle name="쉼표 [0] 5" xfId="2674"/>
-    <cellStyle name="쉼표 [0] 10" xfId="2675"/>
-    <cellStyle name="연결된 셀 2" xfId="2676"/>
-    <cellStyle name="요약 2" xfId="2677"/>
-    <cellStyle name="입력 2" xfId="2678"/>
-    <cellStyle name="제목 5" xfId="2679"/>
-    <cellStyle name="제목 1 2" xfId="2680"/>
-    <cellStyle name="제목 2 2" xfId="2681"/>
-    <cellStyle name="제목 3 2" xfId="2682"/>
-    <cellStyle name="제목 4 2" xfId="2683"/>
-    <cellStyle name="좋음 2" xfId="2684"/>
-    <cellStyle name="출력 2" xfId="2685"/>
-    <cellStyle name="하이퍼링크 2" xfId="2686"/>
-    <cellStyle name="표준 2 4" xfId="2687"/>
-    <cellStyle name="표준 2 2 2" xfId="2688"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -8458,442 +8475,225 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E22"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col width="26.75" customWidth="1" style="1" min="1" max="1"/>
-    <col width="25.25" customWidth="1" style="1" min="2" max="2"/>
-    <col width="24.25" customWidth="1" style="1" min="3" max="3"/>
-    <col width="30" customWidth="1" style="1" min="4" max="4"/>
-    <col width="9" customWidth="1" style="1" min="5" max="7"/>
-    <col width="9" customWidth="1" style="1" min="8" max="16384"/>
+    <col min="1" max="1" width="26.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="9" width="9" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" s="5">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>주소</t>
-        </is>
+    <row r="1" spans="1:4" ht="30" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>경도</t>
-        </is>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>위도</t>
-        </is>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
       </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>MGRS</t>
-        </is>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>송학동1가 11-1</t>
-        </is>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>126.6221322</v>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
       </c>
-      <c r="C2" s="0" t="n">
-        <v>37.4745802</v>
+      <c r="B3"/>
+      <c r="C3"/>
+      <c r="D3"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
       </c>
-      <c r="D2" s="0" t="inlineStr">
-        <is>
-          <t>52SBG8973350176</t>
-        </is>
+      <c r="B4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
       </c>
+      <c r="B5"/>
+      <c r="C5"/>
+      <c r="D5"/>
     </row>
-    <row r="3">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>답동 18-4</t>
-        </is>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>126.6277455</v>
+      <c r="B6"/>
+      <c r="C6"/>
+      <c r="D6"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
       </c>
-      <c r="C3" s="0" t="n">
-        <v>37.4697421</v>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
       </c>
-      <c r="D3" s="0" t="inlineStr">
-        <is>
-          <t>52SBG9021549627</t>
-        </is>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
       </c>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
     </row>
-    <row r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>신생동 2-44</t>
-        </is>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
       </c>
-      <c r="B4" s="0" t="n">
-        <v>126.625215</v>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>37.4703272</v>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
       </c>
-      <c r="D4" s="0" t="inlineStr">
-        <is>
-          <t>52SBG8999349697</t>
-        </is>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
       </c>
+      <c r="B13"/>
+      <c r="C13"/>
+      <c r="D13"/>
     </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>사동 18-3</t>
-        </is>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>126.6259499</v>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3" t="s">
+        <v>17</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>37.4696447</v>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3" t="s">
+        <v>18</v>
       </c>
-      <c r="D5" s="0" t="inlineStr">
-        <is>
-          <t>52SBG9005649620</t>
-        </is>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
       </c>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="inlineStr">
-        <is>
-          <t>전동 25-97</t>
-        </is>
+    <row r="18" spans="1:4">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
       </c>
-      <c r="B6" s="0" t="n">
-        <v>126.6268065</v>
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>37.4789243</v>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="3" t="s">
+        <v>22</v>
       </c>
-      <c r="D6" s="0" t="inlineStr">
-        <is>
-          <t>52SBG9015850648</t>
-        </is>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="3" t="s">
+        <v>23</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>답동 10-16</t>
-        </is>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>126.6302839</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>37.4690301</v>
-      </c>
-      <c r="D7" s="0" t="inlineStr">
-        <is>
-          <t>52SBG9043849542</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="inlineStr">
-        <is>
-          <t>답동 6</t>
-        </is>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>126.6285263</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>37.470254</v>
-      </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t>52SBG9028649682</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>송학동 2가 18</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>126.6243847</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>37.4741829</v>
-      </c>
-      <c r="D9" s="0" t="inlineStr">
-        <is>
-          <t>52SBG8993150127</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="inlineStr">
-        <is>
-          <t>관동3가 1-4</t>
-        </is>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>126.6254795</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>37.4719936</v>
-      </c>
-      <c r="D10" s="0" t="inlineStr">
-        <is>
-          <t>52SBG9002149882</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>신생동 2-1</t>
-        </is>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>126.625029</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>37.4707918</v>
-      </c>
-      <c r="D11" s="0" t="inlineStr">
-        <is>
-          <t>52SBG8997849749</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="inlineStr">
-        <is>
-          <t>신포동 18-8</t>
-        </is>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>126.6268735</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>37.4703195</v>
-      </c>
-      <c r="D12" s="0" t="inlineStr">
-        <is>
-          <t>52SBG9014049693</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>중앙동 4가 7-1</t>
-        </is>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>126.6239459</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>37.47172070000001</v>
-      </c>
-      <c r="D13" s="0" t="inlineStr">
-        <is>
-          <t>52SBG8988549855</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="inlineStr">
-        <is>
-          <t>중앙동 4가 8</t>
-        </is>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>126.6234518</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>37.47129779999999</v>
-      </c>
-      <c r="D14" s="0" t="inlineStr">
-        <is>
-          <t>52SBG8984049809</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>송학동3가 3</t>
-        </is>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>126.6256161</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>37.4734864</v>
-      </c>
-      <c r="D15" s="0" t="inlineStr">
-        <is>
-          <t>52SBG9003850047</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">답동 9 </t>
-        </is>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>126.629738</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>37.4699554</v>
-      </c>
-      <c r="D16" s="0" t="inlineStr">
-        <is>
-          <t>52SBG9039249646</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="3" t="inlineStr">
-        <is>
-          <t>해안동 2가 4</t>
-        </is>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>126.6213972</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>37.4717559</v>
-      </c>
-      <c r="D17" s="0" t="inlineStr">
-        <is>
-          <t>52SBG8966049864</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="inlineStr">
-        <is>
-          <t>사동 29</t>
-        </is>
-      </c>
-      <c r="D18" s="0" t="inlineStr">
-        <is>
-          <t>52SBG8966049864</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="3" t="inlineStr">
-        <is>
-          <t>송학동 2가 16</t>
-        </is>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>126.6235826</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>37.4733492</v>
-      </c>
-      <c r="D19" s="0" t="inlineStr">
-        <is>
-          <t>52SBG8985750036</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>사동 2-1</t>
-        </is>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>128.7553822</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>35.8117482</v>
-      </c>
-      <c r="D20" s="0" t="inlineStr">
-        <is>
-          <t>52SDE7790063096</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>신생동 28</t>
-        </is>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>126.6290434</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>37.4676272</v>
-      </c>
-      <c r="D21" s="0" t="inlineStr">
-        <is>
-          <t>52SBG9032449389</t>
-        </is>
-      </c>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>